--- a/EsquemaGestionBiblioteca.xlsx
+++ b/EsquemaGestionBiblioteca.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\OneDrive - Universidad de Antioquia\Escritorio\SQL_Practicas\SQL_GestionBiblioteca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E99152-5309-4103-88F9-C8C52E86D254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC623AA-5520-4FEB-95C7-E94A0D2F6753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B93947F0-A758-4779-A13A-F1311E76CF00}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{B93947F0-A758-4779-A13A-F1311E76CF00}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablas_iniciales" sheetId="1" r:id="rId1"/>
@@ -1333,7 +1333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1569,6 +1569,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1584,6 +1671,87 @@
     <xf numFmtId="0" fontId="2" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1593,172 +1761,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2111,7 +2114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4EE211-EBCD-4D20-AF64-DE378CFE7D8F}">
   <dimension ref="B1:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -2123,15 +2126,15 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:10" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
     </row>
     <row r="3" spans="2:10" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="9" t="s">
@@ -2158,17 +2161,17 @@
     </row>
     <row r="4" spans="2:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="2:10" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
     </row>
     <row r="6" spans="2:10" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="42" t="s">
@@ -2192,21 +2195,21 @@
       <c r="H6" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="82" t="s">
+      <c r="I6" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="82"/>
+      <c r="J6" s="111"/>
     </row>
     <row r="7" spans="2:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="2:10" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -2231,8 +2234,8 @@
         <v>21</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
     </row>
     <row r="10" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
@@ -2249,41 +2252,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8557BD5F-FF78-4562-9CA3-2C356136C443}">
-  <dimension ref="B1:AA53"/>
+  <dimension ref="B1:AB53"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="2:21" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="I2" s="87" t="s">
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="I2" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="N2" s="88" t="s">
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="N2" s="129" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="R2" s="107" t="s">
+      <c r="O2" s="129"/>
+      <c r="P2" s="129"/>
+      <c r="R2" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="117"/>
+      <c r="U2" s="117"/>
     </row>
     <row r="3" spans="2:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
@@ -2339,82 +2342,82 @@
       </c>
     </row>
     <row r="4" spans="2:21" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="112" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="112" t="s">
+      <c r="B4" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="112" t="s">
+      <c r="D4" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="112" t="s">
+      <c r="E4" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="112" t="s">
+      <c r="F4" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="112" t="s">
+      <c r="G4" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="113" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4" s="113" t="s">
+      <c r="I4" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="K4" s="113" t="s">
+      <c r="K4" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="L4" s="113" t="s">
+      <c r="L4" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="N4" s="114" t="s">
-        <v>90</v>
-      </c>
-      <c r="O4" s="114" t="s">
+      <c r="N4" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="O4" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="P4" s="114" t="s">
+      <c r="P4" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="R4" s="115" t="s">
-        <v>90</v>
-      </c>
-      <c r="S4" s="115" t="s">
+      <c r="R4" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="S4" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="T4" s="115" t="s">
+      <c r="T4" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="U4" s="115" t="s">
+      <c r="U4" s="83" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="2:21" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="2:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="90"/>
-      <c r="E6" s="91" t="s">
+      <c r="C6" s="131"/>
+      <c r="E6" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="91"/>
-      <c r="I6" s="98" t="s">
+      <c r="F6" s="132"/>
+      <c r="I6" s="134" t="s">
         <v>84</v>
       </c>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="N6" s="101" t="s">
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="N6" s="136" t="s">
         <v>67</v>
       </c>
-      <c r="O6" s="101"/>
-      <c r="P6" s="101"/>
-      <c r="R6" s="110" t="s">
+      <c r="O6" s="136"/>
+      <c r="P6" s="136"/>
+      <c r="R6" s="119" t="s">
         <v>72</v>
       </c>
-      <c r="S6" s="110"/>
+      <c r="S6" s="119"/>
     </row>
     <row r="7" spans="2:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="5" t="s">
@@ -2455,65 +2458,65 @@
       </c>
     </row>
     <row r="8" spans="2:21" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="116" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="116" t="s">
+      <c r="B8" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="116" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="116" t="s">
-        <v>90</v>
-      </c>
-      <c r="I8" s="117" t="s">
-        <v>90</v>
-      </c>
-      <c r="J8" s="117" t="s">
+      <c r="E8" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="K8" s="117" t="s">
+      <c r="K8" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="N8" s="130" t="s">
-        <v>90</v>
-      </c>
-      <c r="O8" s="130" t="s">
-        <v>90</v>
-      </c>
-      <c r="P8" s="130" t="s">
-        <v>90</v>
-      </c>
-      <c r="R8" s="118" t="s">
+      <c r="N8" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="R8" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="S8" s="139" t="s">
+      <c r="S8" s="104" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="9" spans="2:21" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="2:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="E10" s="84" t="s">
+      <c r="C10" s="140"/>
+      <c r="E10" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="84"/>
-      <c r="I10" s="98" t="s">
+      <c r="F10" s="140"/>
+      <c r="I10" s="134" t="s">
         <v>82</v>
       </c>
-      <c r="J10" s="98"/>
-      <c r="N10" s="80" t="s">
+      <c r="J10" s="134"/>
+      <c r="N10" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="O10" s="80"/>
-      <c r="R10" s="110" t="s">
+      <c r="O10" s="109"/>
+      <c r="R10" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="S10" s="110"/>
+      <c r="S10" s="119"/>
     </row>
     <row r="11" spans="2:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="9" t="s">
@@ -2548,68 +2551,68 @@
       </c>
     </row>
     <row r="12" spans="2:21" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="119" t="s">
+      <c r="B12" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="119" t="s">
+      <c r="C12" s="143" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="119" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" s="119" t="s">
+      <c r="E12" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="I12" s="117" t="s">
-        <v>90</v>
-      </c>
-      <c r="J12" s="117" t="s">
-        <v>90</v>
-      </c>
-      <c r="N12" s="134" t="s">
+      <c r="I12" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="N12" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="O12" s="137" t="s">
+      <c r="O12" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="R12" s="118" t="s">
-        <v>90</v>
-      </c>
-      <c r="S12" s="118" t="s">
+      <c r="R12" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="S12" s="86" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="2:21" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="2:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="I14" s="99" t="s">
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="I14" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="J14" s="99"/>
-      <c r="N14" s="102" t="s">
+      <c r="J14" s="135"/>
+      <c r="N14" s="137" t="s">
         <v>69</v>
       </c>
-      <c r="O14" s="102"/>
-      <c r="P14" s="102"/>
-      <c r="R14" s="104" t="s">
+      <c r="O14" s="137"/>
+      <c r="P14" s="137"/>
+      <c r="R14" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="S14" s="104"/>
-      <c r="T14" s="104"/>
-      <c r="U14" s="104"/>
+      <c r="S14" s="113"/>
+      <c r="T14" s="113"/>
+      <c r="U14" s="113"/>
     </row>
     <row r="15" spans="2:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="85"/>
+      <c r="D15" s="141"/>
       <c r="I15" s="51" t="s">
         <v>86</v>
       </c>
@@ -2639,63 +2642,63 @@
       </c>
     </row>
     <row r="16" spans="2:21" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="119" t="s">
+      <c r="B16" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="120" t="s">
+      <c r="C16" s="139" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="120"/>
-      <c r="I16" s="121" t="s">
-        <v>90</v>
-      </c>
-      <c r="J16" s="136" t="s">
+      <c r="D16" s="139"/>
+      <c r="I16" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="N16" s="131" t="s">
-        <v>90</v>
-      </c>
-      <c r="O16" s="131" t="s">
-        <v>90</v>
-      </c>
-      <c r="P16" s="131" t="s">
+      <c r="N16" s="96" t="s">
+        <v>90</v>
+      </c>
+      <c r="O16" s="96" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="R16" s="132" t="s">
-        <v>90</v>
-      </c>
-      <c r="S16" s="132" t="s">
-        <v>90</v>
-      </c>
-      <c r="T16" s="132" t="s">
-        <v>90</v>
-      </c>
-      <c r="U16" s="132" t="s">
+      <c r="R16" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="S16" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="T16" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="U16" s="97" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="2:27" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="18" spans="2:27" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="92" t="s">
+    <row r="17" spans="2:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="2:28" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="I18" s="99" t="s">
+      <c r="C18" s="133"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="I18" s="135" t="s">
         <v>85</v>
       </c>
-      <c r="J18" s="99"/>
-      <c r="N18" s="103" t="s">
+      <c r="J18" s="135"/>
+      <c r="N18" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="O18" s="103"/>
-      <c r="R18" s="104" t="s">
+      <c r="O18" s="138"/>
+      <c r="R18" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="S18" s="104"/>
-    </row>
-    <row r="19" spans="2:27" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="S18" s="113"/>
+    </row>
+    <row r="19" spans="2:28" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="12" t="s">
         <v>39</v>
       </c>
@@ -2720,67 +2723,67 @@
       <c r="O19" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="R19" s="140" t="s">
+      <c r="R19" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="S19" s="141" t="s">
+      <c r="S19" s="106" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="2:27" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="122" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="122" t="s">
+    <row r="20" spans="2:28" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="122" t="s">
+      <c r="D20" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="122" t="s">
+      <c r="E20" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="I20" s="121" t="s">
-        <v>90</v>
-      </c>
-      <c r="J20" s="121" t="s">
-        <v>90</v>
-      </c>
-      <c r="N20" s="123" t="s">
+      <c r="I20" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="N20" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="O20" s="138" t="s">
+      <c r="O20" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="R20" s="132" t="s">
-        <v>90</v>
-      </c>
-      <c r="S20" s="132" t="s">
+      <c r="R20" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="S20" s="97" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="2:27" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="22" spans="2:27" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="93" t="s">
+    <row r="21" spans="2:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="22" spans="2:28" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="120" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="93"/>
-      <c r="I22" s="97" t="s">
+      <c r="C22" s="120"/>
+      <c r="I22" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-      <c r="N22" s="109" t="s">
+      <c r="J22" s="124"/>
+      <c r="K22" s="124"/>
+      <c r="N22" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="O22" s="109"/>
-      <c r="R22" s="105" t="s">
+      <c r="O22" s="118"/>
+      <c r="R22" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="S22" s="105"/>
-      <c r="AA22" s="75"/>
-    </row>
-    <row r="23" spans="2:27" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="S22" s="114"/>
+      <c r="AB22" s="75"/>
+    </row>
+    <row r="23" spans="2:28" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="49" t="s">
         <v>23</v>
       </c>
@@ -2808,50 +2811,50 @@
       <c r="S23" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="AA23" s="74"/>
-    </row>
-    <row r="24" spans="2:27" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="133" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="133" t="s">
-        <v>90</v>
-      </c>
-      <c r="I24" s="124" t="s">
-        <v>90</v>
-      </c>
-      <c r="J24" s="124" t="s">
-        <v>90</v>
-      </c>
-      <c r="K24" s="124" t="s">
-        <v>90</v>
-      </c>
-      <c r="N24" s="123" t="s">
-        <v>90</v>
-      </c>
-      <c r="O24" s="123" t="s">
+      <c r="AB23" s="74"/>
+    </row>
+    <row r="24" spans="2:28" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="98" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="98" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="J24" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="K24" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="N24" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="O24" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="R24" s="125" t="s">
-        <v>90</v>
-      </c>
-      <c r="S24" s="125" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA24" s="74"/>
-    </row>
-    <row r="25" spans="2:27" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="26" spans="2:27" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I26" s="97" t="s">
+      <c r="R24" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="S24" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB24" s="74"/>
+    </row>
+    <row r="25" spans="2:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="2:28" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I26" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="J26" s="97"/>
-      <c r="R26" s="105" t="s">
+      <c r="J26" s="124"/>
+      <c r="R26" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="S26" s="105"/>
-    </row>
-    <row r="27" spans="2:27" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="S26" s="114"/>
+    </row>
+    <row r="27" spans="2:28" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I27" s="57" t="s">
         <v>24</v>
       </c>
@@ -2865,40 +2868,40 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="2:27" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="I28" s="124" t="s">
-        <v>90</v>
-      </c>
-      <c r="J28" s="124" t="s">
-        <v>90</v>
-      </c>
-      <c r="R28" s="125" t="s">
+    <row r="28" spans="2:28" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="I28" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="J28" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="R28" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="S28" s="142" t="s">
+      <c r="S28" s="107" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="2:27" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="2:27" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I30" s="94" t="s">
+    <row r="29" spans="2:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="2:28" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I30" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="J30" s="94"/>
-      <c r="K30" s="94"/>
-      <c r="R30" s="106" t="s">
+      <c r="J30" s="121"/>
+      <c r="K30" s="121"/>
+      <c r="R30" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="S30" s="106"/>
-    </row>
-    <row r="31" spans="2:27" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="S30" s="115"/>
+    </row>
+    <row r="31" spans="2:28" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I31" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="J31" s="95" t="s">
+      <c r="J31" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="K31" s="95"/>
+      <c r="K31" s="122"/>
       <c r="R31" s="36" t="s">
         <v>74</v>
       </c>
@@ -2906,28 +2909,28 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="2:27" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="I32" s="127" t="s">
+    <row r="32" spans="2:28" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="I32" s="93" t="s">
         <v>98</v>
       </c>
       <c r="J32" s="126" t="s">
         <v>96</v>
       </c>
       <c r="K32" s="126"/>
-      <c r="R32" s="135" t="s">
-        <v>90</v>
-      </c>
-      <c r="S32" s="135" t="s">
+      <c r="R32" s="100" t="s">
+        <v>90</v>
+      </c>
+      <c r="S32" s="100" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="33" spans="9:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="34" spans="9:11" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I34" s="94" t="s">
+      <c r="I34" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="J34" s="94"/>
-      <c r="K34" s="94"/>
+      <c r="J34" s="121"/>
+      <c r="K34" s="121"/>
     </row>
     <row r="35" spans="9:11" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I35" s="59" t="s">
@@ -2941,22 +2944,22 @@
       </c>
     </row>
     <row r="36" spans="9:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="I36" s="127" t="s">
-        <v>90</v>
-      </c>
-      <c r="J36" s="127" t="s">
+      <c r="I36" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="J36" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="K36" s="127" t="s">
+      <c r="K36" s="93" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="37" spans="9:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="38" spans="9:11" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I38" s="94" t="s">
+      <c r="I38" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="J38" s="94"/>
+      <c r="J38" s="121"/>
     </row>
     <row r="39" spans="9:11" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I39" s="62" t="s">
@@ -2967,49 +2970,49 @@
       </c>
     </row>
     <row r="40" spans="9:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="I40" s="127" t="s">
-        <v>90</v>
-      </c>
-      <c r="J40" s="127" t="s">
+      <c r="I40" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="J40" s="93" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="41" spans="9:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I41" s="111"/>
-      <c r="J41" s="111"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="79"/>
     </row>
     <row r="42" spans="9:11" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I42" s="96" t="s">
+      <c r="I42" s="123" t="s">
         <v>53</v>
       </c>
-      <c r="J42" s="96"/>
-      <c r="K42" s="96"/>
+      <c r="J42" s="123"/>
+      <c r="K42" s="123"/>
     </row>
     <row r="43" spans="9:11" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I43" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="J43" s="100" t="s">
+      <c r="J43" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="K43" s="100"/>
+      <c r="K43" s="125"/>
     </row>
     <row r="44" spans="9:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="I44" s="129" t="s">
+      <c r="I44" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="J44" s="128" t="s">
+      <c r="J44" s="127" t="s">
         <v>96</v>
       </c>
-      <c r="K44" s="128"/>
+      <c r="K44" s="127"/>
     </row>
     <row r="45" spans="9:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="46" spans="9:11" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I46" s="96" t="s">
+      <c r="I46" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="J46" s="96"/>
-      <c r="K46" s="96"/>
+      <c r="J46" s="123"/>
+      <c r="K46" s="123"/>
     </row>
     <row r="47" spans="9:11" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I47" s="64" t="s">
@@ -3023,22 +3026,22 @@
       </c>
     </row>
     <row r="48" spans="9:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="I48" s="129" t="s">
-        <v>90</v>
-      </c>
-      <c r="J48" s="129" t="s">
+      <c r="I48" s="94" t="s">
+        <v>90</v>
+      </c>
+      <c r="J48" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="K48" s="129" t="s">
+      <c r="K48" s="94" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="49" spans="9:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="50" spans="9:10" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I50" s="96" t="s">
+      <c r="I50" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="J50" s="96"/>
+      <c r="J50" s="123"/>
     </row>
     <row r="51" spans="9:10" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I51" s="67" t="s">
@@ -3049,38 +3052,19 @@
       </c>
     </row>
     <row r="52" spans="9:10" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="I52" s="129" t="s">
-        <v>90</v>
-      </c>
-      <c r="J52" s="129" t="s">
+      <c r="I52" s="94" t="s">
+        <v>90</v>
+      </c>
+      <c r="J52" s="94" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="53" spans="9:10" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="R14:U14"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B2:G2"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="B6:C6"/>
@@ -3097,9 +3081,28 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="R22:S22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/EsquemaGestionBiblioteca.xlsx
+++ b/EsquemaGestionBiblioteca.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\OneDrive - Universidad de Antioquia\Escritorio\SQL_Practicas\SQL_GestionBiblioteca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC623AA-5520-4FEB-95C7-E94A0D2F6753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BDC423-BAC7-409D-982B-43454B9C6980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{B93947F0-A758-4779-A13A-F1311E76CF00}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12096" activeTab="1" xr2:uid="{B93947F0-A758-4779-A13A-F1311E76CF00}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablas_iniciales" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="103">
   <si>
     <t>Usuario</t>
   </si>
@@ -163,9 +163,6 @@
   </si>
   <si>
     <t>idInfraccion</t>
-  </si>
-  <si>
-    <t>DescripcionPerfil</t>
   </si>
   <si>
     <t>descripcionInfraccion</t>
@@ -359,6 +356,18 @@
   </si>
   <si>
     <t>money</t>
+  </si>
+  <si>
+    <t>numeroIdentidad</t>
+  </si>
+  <si>
+    <t>idTipoIdentidad</t>
+  </si>
+  <si>
+    <t>TipoDeIdentidad</t>
+  </si>
+  <si>
+    <t>descripcionPerfil</t>
   </si>
 </sst>
 </file>
@@ -501,7 +510,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -535,12 +544,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,7 +644,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -741,21 +744,6 @@
     </border>
     <border>
       <left style="thick">
-        <color theme="7" tint="0.79998168889431442"/>
-      </left>
-      <right style="thick">
-        <color theme="7" tint="0.79998168889431442"/>
-      </right>
-      <top style="thick">
-        <color theme="7" tint="0.79998168889431442"/>
-      </top>
-      <bottom style="thick">
-        <color theme="7" tint="0.79998168889431442"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
         <color theme="5" tint="-0.499984740745262"/>
       </left>
       <right style="thick">
@@ -1241,21 +1229,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="7" tint="0.79995117038483843"/>
-      </left>
-      <right style="thin">
-        <color theme="7" tint="0.79995117038483843"/>
-      </right>
-      <top style="thick">
-        <color theme="7" tint="0.79998168889431442"/>
-      </top>
-      <bottom style="thin">
-        <color theme="7" tint="0.79995117038483843"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="5" tint="0.39991454817346722"/>
       </left>
       <right style="thin">
@@ -1326,6 +1299,21 @@
       </top>
       <bottom style="thin">
         <color theme="5" tint="0.79995117038483843"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="0.39994506668294322"/>
+      </left>
+      <right style="thin">
+        <color theme="7" tint="0.39994506668294322"/>
+      </right>
+      <top style="thick">
+        <color theme="7" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1341,9 +1329,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1368,190 +1353,181 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1560,18 +1536,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1587,181 +1566,190 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1772,6 +1760,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFE5F2"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFE97737"/>
       <color rgb="FFE76821"/>
       <color rgb="FF943F10"/>
@@ -1780,8 +1770,6 @@
       <color rgb="FFFAD7C6"/>
       <color rgb="FF663300"/>
       <color rgb="FF00CC66"/>
-      <color rgb="FFF6C1A4"/>
-      <color rgb="FFF3B897"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2126,116 +2114,116 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:10" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
     </row>
     <row r="3" spans="2:10" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="38" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="2:10" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
     </row>
     <row r="6" spans="2:10" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="111" t="s">
+      <c r="I6" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="111"/>
+      <c r="J6" s="107"/>
     </row>
     <row r="7" spans="2:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="2:10" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="42" t="s">
         <v>21</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
     </row>
     <row r="10" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
@@ -2252,858 +2240,890 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8557BD5F-FF78-4562-9CA3-2C356136C443}">
-  <dimension ref="B1:AB53"/>
+  <dimension ref="B1:AD53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:21" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="142" t="s">
+    <row r="1" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="I2" s="128" t="s">
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="K2" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="N2" s="129" t="s">
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="P2" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="T2" s="134" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="135"/>
+    </row>
+    <row r="3" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="143" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="139" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="139" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="U3" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="V3" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" s="72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="M4" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="N4" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="P4" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="R4" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="T4" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="U4" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="V4" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="W4" s="79" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="114" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="115"/>
+      <c r="E6" s="114" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="115"/>
+      <c r="H6" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="116"/>
+      <c r="K6" s="118" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="118"/>
+      <c r="M6" s="118"/>
+      <c r="P6" s="120" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q6" s="120"/>
+      <c r="R6" s="120"/>
+      <c r="T6" s="137" t="s">
+        <v>71</v>
+      </c>
+      <c r="U6" s="137"/>
+    </row>
+    <row r="7" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="140" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="U7" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="141" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q8" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="R8" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="T8" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="U8" s="99" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="109" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="109"/>
+      <c r="E10" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="109"/>
+      <c r="K10" s="118" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="118"/>
+      <c r="P10" s="105" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="105"/>
+      <c r="T10" s="137" t="s">
+        <v>65</v>
+      </c>
+      <c r="U10" s="137"/>
+    </row>
+    <row r="11" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q11" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="T11" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="U11" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="83" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="K12" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="P12" s="94" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q12" s="97" t="s">
+        <v>95</v>
+      </c>
+      <c r="T12" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="U12" s="82" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="F14" s="109" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="K14" s="119" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="119"/>
+      <c r="P14" s="121" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q14" s="121"/>
+      <c r="R14" s="121"/>
+      <c r="T14" s="131" t="s">
+        <v>87</v>
+      </c>
+      <c r="U14" s="131"/>
+      <c r="V14" s="131"/>
+      <c r="W14" s="131"/>
+    </row>
+    <row r="15" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="110" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="110"/>
+      <c r="F15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="R15" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="T15" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="U15" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="V15" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="123" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="123"/>
+      <c r="F16" s="142" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="142" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="142" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="142" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="96" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q16" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="R16" s="92" t="s">
+        <v>97</v>
+      </c>
+      <c r="T16" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="U16" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="V16" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="W16" s="93" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="2:30" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="117" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="117"/>
+      <c r="K18" s="119" t="s">
+        <v>84</v>
+      </c>
+      <c r="L18" s="119"/>
+      <c r="P18" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="R2" s="116" t="s">
-        <v>61</v>
-      </c>
-      <c r="S2" s="117"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
-    </row>
-    <row r="3" spans="2:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="3" t="s">
+      <c r="Q18" s="122"/>
+      <c r="T18" s="131" t="s">
+        <v>72</v>
+      </c>
+      <c r="U18" s="131"/>
+    </row>
+    <row r="19" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="15" t="s">
+      <c r="C19" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="19" t="s">
+      <c r="L19" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="P19" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q19" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="T19" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="U19" s="101" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:30" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="85" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="85" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="P20" s="86" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q20" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="T20" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="U20" s="93" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="22" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K22" s="127" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="127"/>
+      <c r="M22" s="127"/>
+      <c r="P22" s="136" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q22" s="136"/>
+      <c r="T22" s="132" t="s">
+        <v>79</v>
+      </c>
+      <c r="U22" s="132"/>
+      <c r="AD22" s="71"/>
+    </row>
+    <row r="23" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K23" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="L23" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="P23" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="R3" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="S3" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T3" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="U3" s="76" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="80" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="80" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="80" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="80" t="s">
+      <c r="Q23" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="T23" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="U23" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD23" s="70"/>
+    </row>
+    <row r="24" spans="2:30" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="K24" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="L24" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="M24" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="P24" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q24" s="86" t="s">
+        <v>97</v>
+      </c>
+      <c r="T24" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="U24" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD24" s="70"/>
+    </row>
+    <row r="25" spans="2:30" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K26" s="127" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" s="127"/>
+      <c r="T26" s="132" t="s">
+        <v>74</v>
+      </c>
+      <c r="U26" s="132"/>
+    </row>
+    <row r="27" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K27" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="T27" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="U27" s="74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="2:30" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="K28" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="L28" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="T28" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="U28" s="102" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="2:30" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K30" s="124" t="s">
+        <v>46</v>
+      </c>
+      <c r="L30" s="124"/>
+      <c r="M30" s="124"/>
+      <c r="T30" s="133" t="s">
+        <v>76</v>
+      </c>
+      <c r="U30" s="133"/>
+    </row>
+    <row r="31" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K31" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="125" t="s">
+        <v>47</v>
+      </c>
+      <c r="M31" s="125"/>
+      <c r="T31" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="U31" s="34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="2:30" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="K32" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="L32" s="129" t="s">
+        <v>95</v>
+      </c>
+      <c r="M32" s="129"/>
+      <c r="T32" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="U32" s="95" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="11:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="34" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K34" s="124" t="s">
+        <v>43</v>
+      </c>
+      <c r="L34" s="124"/>
+      <c r="M34" s="124"/>
+    </row>
+    <row r="35" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K35" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="M35" s="57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="11:13" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="K36" s="89" t="s">
+        <v>89</v>
+      </c>
+      <c r="L36" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="80" t="s">
-        <v>91</v>
-      </c>
-      <c r="I4" s="81" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4" s="81" t="s">
+      <c r="M36" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="K4" s="81" t="s">
-        <v>94</v>
-      </c>
-      <c r="L4" s="81" t="s">
-        <v>91</v>
-      </c>
-      <c r="N4" s="82" t="s">
-        <v>90</v>
-      </c>
-      <c r="O4" s="82" t="s">
-        <v>94</v>
-      </c>
-      <c r="P4" s="82" t="s">
+    </row>
+    <row r="37" spans="11:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="38" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K38" s="124" t="s">
+        <v>26</v>
+      </c>
+      <c r="L38" s="124"/>
+    </row>
+    <row r="39" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K39" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" s="58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="11:13" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="K40" s="89" t="s">
+        <v>89</v>
+      </c>
+      <c r="L40" s="89" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="11:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K41" s="75"/>
+      <c r="L41" s="75"/>
+    </row>
+    <row r="42" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K42" s="126" t="s">
+        <v>52</v>
+      </c>
+      <c r="L42" s="126"/>
+      <c r="M42" s="126"/>
+    </row>
+    <row r="43" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K43" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="L43" s="128" t="s">
+        <v>54</v>
+      </c>
+      <c r="M43" s="128"/>
+    </row>
+    <row r="44" spans="11:13" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="K44" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="L44" s="130" t="s">
         <v>95</v>
       </c>
-      <c r="R4" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="S4" s="83" t="s">
-        <v>95</v>
-      </c>
-      <c r="T4" s="83" t="s">
-        <v>95</v>
-      </c>
-      <c r="U4" s="83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="2:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="130" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="131"/>
-      <c r="E6" s="132" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="132"/>
-      <c r="I6" s="134" t="s">
-        <v>84</v>
-      </c>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="N6" s="136" t="s">
-        <v>67</v>
-      </c>
-      <c r="O6" s="136"/>
-      <c r="P6" s="136"/>
-      <c r="R6" s="119" t="s">
-        <v>72</v>
-      </c>
-      <c r="S6" s="119"/>
-    </row>
-    <row r="7" spans="2:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="J7" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" s="21" t="s">
+      <c r="M44" s="130"/>
+    </row>
+    <row r="45" spans="11:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K46" s="126" t="s">
+        <v>50</v>
+      </c>
+      <c r="L46" s="126"/>
+      <c r="M46" s="126"/>
+    </row>
+    <row r="47" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K47" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="L47" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="M47" s="62" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="11:13" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="K48" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="L48" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="M48" s="90" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="11:12" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="50" spans="11:12" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K50" s="126" t="s">
+        <v>48</v>
+      </c>
+      <c r="L50" s="126"/>
+    </row>
+    <row r="51" spans="11:12" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K51" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="S7" s="28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="84" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="84" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="84" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="84" t="s">
-        <v>90</v>
-      </c>
-      <c r="I8" s="85" t="s">
-        <v>90</v>
-      </c>
-      <c r="J8" s="85" t="s">
-        <v>91</v>
-      </c>
-      <c r="K8" s="85" t="s">
-        <v>91</v>
-      </c>
-      <c r="N8" s="95" t="s">
-        <v>90</v>
-      </c>
-      <c r="O8" s="95" t="s">
-        <v>90</v>
-      </c>
-      <c r="P8" s="95" t="s">
-        <v>90</v>
-      </c>
-      <c r="R8" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="S8" s="104" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="2:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="140"/>
-      <c r="E10" s="140" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="140"/>
-      <c r="I10" s="134" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" s="134"/>
-      <c r="N10" s="109" t="s">
-        <v>65</v>
-      </c>
-      <c r="O10" s="109"/>
-      <c r="R10" s="119" t="s">
-        <v>66</v>
-      </c>
-      <c r="S10" s="119"/>
-    </row>
-    <row r="11" spans="2:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="N11" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="O11" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="R11" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="S11" s="30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="87" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="143" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="87" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" s="87" t="s">
-        <v>98</v>
-      </c>
-      <c r="I12" s="85" t="s">
-        <v>90</v>
-      </c>
-      <c r="J12" s="85" t="s">
-        <v>90</v>
-      </c>
-      <c r="N12" s="99" t="s">
-        <v>98</v>
-      </c>
-      <c r="O12" s="102" t="s">
-        <v>96</v>
-      </c>
-      <c r="R12" s="86" t="s">
-        <v>90</v>
-      </c>
-      <c r="S12" s="86" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="2:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="140" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="140"/>
-      <c r="D14" s="140"/>
-      <c r="I14" s="135" t="s">
-        <v>87</v>
-      </c>
-      <c r="J14" s="135"/>
-      <c r="N14" s="137" t="s">
-        <v>69</v>
-      </c>
-      <c r="O14" s="137"/>
-      <c r="P14" s="137"/>
-      <c r="R14" s="113" t="s">
-        <v>88</v>
-      </c>
-      <c r="S14" s="113"/>
-      <c r="T14" s="113"/>
-      <c r="U14" s="113"/>
-    </row>
-    <row r="15" spans="2:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="141" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="141"/>
-      <c r="I15" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="N15" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="O15" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="P15" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="R15" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="S15" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="T15" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="U15" s="33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="87" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="139" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="139"/>
-      <c r="I16" s="88" t="s">
-        <v>90</v>
-      </c>
-      <c r="J16" s="101" t="s">
-        <v>92</v>
-      </c>
-      <c r="N16" s="96" t="s">
-        <v>90</v>
-      </c>
-      <c r="O16" s="96" t="s">
-        <v>90</v>
-      </c>
-      <c r="P16" s="96" t="s">
-        <v>98</v>
-      </c>
-      <c r="R16" s="97" t="s">
-        <v>90</v>
-      </c>
-      <c r="S16" s="97" t="s">
-        <v>90</v>
-      </c>
-      <c r="T16" s="97" t="s">
-        <v>90</v>
-      </c>
-      <c r="U16" s="97" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="2:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="18" spans="2:28" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="133" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="133"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133"/>
-      <c r="I18" s="135" t="s">
-        <v>85</v>
-      </c>
-      <c r="J18" s="135"/>
-      <c r="N18" s="138" t="s">
-        <v>59</v>
-      </c>
-      <c r="O18" s="138"/>
-      <c r="R18" s="113" t="s">
-        <v>73</v>
-      </c>
-      <c r="S18" s="113"/>
-    </row>
-    <row r="19" spans="2:28" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="N19" s="73" t="s">
-        <v>68</v>
-      </c>
-      <c r="O19" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="R19" s="105" t="s">
-        <v>74</v>
-      </c>
-      <c r="S19" s="106" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="2:28" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="89" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="89" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="89" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="89" t="s">
-        <v>95</v>
-      </c>
-      <c r="I20" s="88" t="s">
-        <v>90</v>
-      </c>
-      <c r="J20" s="88" t="s">
-        <v>90</v>
-      </c>
-      <c r="N20" s="90" t="s">
-        <v>98</v>
-      </c>
-      <c r="O20" s="103" t="s">
-        <v>96</v>
-      </c>
-      <c r="R20" s="97" t="s">
-        <v>90</v>
-      </c>
-      <c r="S20" s="97" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="2:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="22" spans="2:28" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="120" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="120"/>
-      <c r="I22" s="124" t="s">
-        <v>57</v>
-      </c>
-      <c r="J22" s="124"/>
-      <c r="K22" s="124"/>
-      <c r="N22" s="118" t="s">
-        <v>79</v>
-      </c>
-      <c r="O22" s="118"/>
-      <c r="R22" s="114" t="s">
-        <v>80</v>
-      </c>
-      <c r="S22" s="114"/>
-      <c r="AB22" s="75"/>
-    </row>
-    <row r="23" spans="2:28" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="J23" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="N23" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="O23" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="R23" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="S23" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB23" s="74"/>
-    </row>
-    <row r="24" spans="2:28" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="98" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="98" t="s">
-        <v>90</v>
-      </c>
-      <c r="I24" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="J24" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="K24" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="N24" s="90" t="s">
-        <v>90</v>
-      </c>
-      <c r="O24" s="90" t="s">
-        <v>98</v>
-      </c>
-      <c r="R24" s="92" t="s">
-        <v>90</v>
-      </c>
-      <c r="S24" s="92" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB24" s="74"/>
-    </row>
-    <row r="25" spans="2:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="26" spans="2:28" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I26" s="124" t="s">
-        <v>28</v>
-      </c>
-      <c r="J26" s="124"/>
-      <c r="R26" s="114" t="s">
-        <v>75</v>
-      </c>
-      <c r="S26" s="114"/>
-    </row>
-    <row r="27" spans="2:28" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I27" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="R27" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="S27" s="78" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="2:28" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="I28" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="J28" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="R28" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="S28" s="107" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="2:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="2:28" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I30" s="121" t="s">
-        <v>47</v>
-      </c>
-      <c r="J30" s="121"/>
-      <c r="K30" s="121"/>
-      <c r="R30" s="115" t="s">
-        <v>77</v>
-      </c>
-      <c r="S30" s="115"/>
-    </row>
-    <row r="31" spans="2:28" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I31" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="J31" s="122" t="s">
-        <v>48</v>
-      </c>
-      <c r="K31" s="122"/>
-      <c r="R31" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="S31" s="37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="2:28" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="I32" s="93" t="s">
-        <v>98</v>
-      </c>
-      <c r="J32" s="126" t="s">
-        <v>96</v>
-      </c>
-      <c r="K32" s="126"/>
-      <c r="R32" s="100" t="s">
-        <v>90</v>
-      </c>
-      <c r="S32" s="100" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="9:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="34" spans="9:11" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I34" s="121" t="s">
-        <v>44</v>
-      </c>
-      <c r="J34" s="121"/>
-      <c r="K34" s="121"/>
-    </row>
-    <row r="35" spans="9:11" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I35" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="J35" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="K35" s="61" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="9:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="I36" s="93" t="s">
-        <v>90</v>
-      </c>
-      <c r="J36" s="93" t="s">
-        <v>94</v>
-      </c>
-      <c r="K36" s="93" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="9:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="38" spans="9:11" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I38" s="121" t="s">
-        <v>26</v>
-      </c>
-      <c r="J38" s="121"/>
-    </row>
-    <row r="39" spans="9:11" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I39" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="J39" s="62" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="9:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="I40" s="93" t="s">
-        <v>90</v>
-      </c>
-      <c r="J40" s="93" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="9:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I41" s="79"/>
-      <c r="J41" s="79"/>
-    </row>
-    <row r="42" spans="9:11" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I42" s="123" t="s">
-        <v>53</v>
-      </c>
-      <c r="J42" s="123"/>
-      <c r="K42" s="123"/>
-    </row>
-    <row r="43" spans="9:11" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I43" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="J43" s="125" t="s">
-        <v>55</v>
-      </c>
-      <c r="K43" s="125"/>
-    </row>
-    <row r="44" spans="9:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="I44" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="J44" s="127" t="s">
-        <v>96</v>
-      </c>
-      <c r="K44" s="127"/>
-    </row>
-    <row r="45" spans="9:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="46" spans="9:11" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I46" s="123" t="s">
-        <v>51</v>
-      </c>
-      <c r="J46" s="123"/>
-      <c r="K46" s="123"/>
-    </row>
-    <row r="47" spans="9:11" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I47" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="J47" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="K47" s="66" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="9:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="I48" s="94" t="s">
-        <v>90</v>
-      </c>
-      <c r="J48" s="94" t="s">
-        <v>94</v>
-      </c>
-      <c r="K48" s="94" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="9:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="50" spans="9:10" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I50" s="123" t="s">
+      <c r="L51" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="J50" s="123"/>
-    </row>
-    <row r="51" spans="9:10" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I51" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="J51" s="67" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="9:10" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="I52" s="94" t="s">
-        <v>90</v>
-      </c>
-      <c r="J52" s="94" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="9:10" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
+    </row>
+    <row r="52" spans="11:12" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="K52" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="L52" s="90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="11:12" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="42">
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="P2:R2"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="R14:U14"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P14:R14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/EsquemaGestionBiblioteca.xlsx
+++ b/EsquemaGestionBiblioteca.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\OneDrive - Universidad de Antioquia\Escritorio\SQL_Practicas\SQL_GestionBiblioteca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BDC423-BAC7-409D-982B-43454B9C6980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD3820A-F8B0-4504-B63E-4C76C138FC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12096" activeTab="1" xr2:uid="{B93947F0-A758-4779-A13A-F1311E76CF00}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="103">
   <si>
     <t>Usuario</t>
   </si>
@@ -274,9 +274,6 @@
   </si>
   <si>
     <t>PrestamoEstadodeprestamo</t>
-  </si>
-  <si>
-    <t>MultaDevolucion</t>
   </si>
   <si>
     <t>fechaPublicacion</t>
@@ -368,6 +365,9 @@
   </si>
   <si>
     <t>descripcionPerfil</t>
+  </si>
+  <si>
+    <t>MultaPrestamoDevolucion</t>
   </si>
 </sst>
 </file>
@@ -644,7 +644,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1317,11 +1317,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="8" tint="0.59996337778862885"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1632,6 +1641,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1647,9 +1674,72 @@
     <xf numFmtId="0" fontId="2" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1662,94 +1752,19 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2114,15 +2129,15 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:10" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
     </row>
     <row r="3" spans="2:10" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="8" t="s">
@@ -2149,17 +2164,17 @@
     </row>
     <row r="4" spans="2:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="2:10" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="39" t="s">
@@ -2183,21 +2198,21 @@
       <c r="H6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="107" t="s">
+      <c r="I6" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="107"/>
+      <c r="J6" s="113"/>
     </row>
     <row r="7" spans="2:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="2:10" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -2222,8 +2237,8 @@
         <v>21</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
     </row>
     <row r="10" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
@@ -2242,51 +2257,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8557BD5F-FF78-4562-9CA3-2C356136C443}">
   <dimension ref="B1:AD53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="K2" s="112" t="s">
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="K2" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="P2" s="113" t="s">
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="P2" s="140" t="s">
         <v>57</v>
       </c>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="T2" s="134" t="s">
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="T2" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="U2" s="135"/>
-      <c r="V2" s="135"/>
-      <c r="W2" s="135"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
     </row>
     <row r="3" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="143" t="s">
+      <c r="B3" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="139" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="139" t="s">
+      <c r="C3" s="105" t="s">
         <v>99</v>
+      </c>
+      <c r="D3" s="105" t="s">
+        <v>98</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
@@ -2310,7 +2325,7 @@
         <v>9</v>
       </c>
       <c r="M3" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N3" s="13" t="s">
         <v>13</v>
@@ -2339,98 +2354,98 @@
     </row>
     <row r="4" spans="2:23" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B4" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="76" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="76" t="s">
+      <c r="F4" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="G4" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="76" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="76" t="s">
+      <c r="H4" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="76" t="s">
+      <c r="I4" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="M4" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="I4" s="76" t="s">
-        <v>90</v>
-      </c>
-      <c r="K4" s="77" t="s">
+      <c r="N4" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="L4" s="77" t="s">
+      <c r="P4" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q4" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="R4" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="T4" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="U4" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="V4" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="W4" s="79" t="s">
         <v>96</v>
-      </c>
-      <c r="M4" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="N4" s="77" t="s">
-        <v>90</v>
-      </c>
-      <c r="P4" s="78" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q4" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="R4" s="78" t="s">
-        <v>94</v>
-      </c>
-      <c r="T4" s="79" t="s">
-        <v>89</v>
-      </c>
-      <c r="U4" s="79" t="s">
-        <v>94</v>
-      </c>
-      <c r="V4" s="79" t="s">
-        <v>94</v>
-      </c>
-      <c r="W4" s="79" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="114" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="115"/>
-      <c r="E6" s="114" t="s">
+      <c r="B6" s="135" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="136"/>
+      <c r="E6" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="115"/>
-      <c r="H6" s="116" t="s">
+      <c r="F6" s="136"/>
+      <c r="H6" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="116"/>
-      <c r="K6" s="118" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" s="118"/>
-      <c r="M6" s="118"/>
-      <c r="P6" s="120" t="s">
+      <c r="I6" s="141"/>
+      <c r="K6" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="P6" s="142" t="s">
         <v>66</v>
       </c>
-      <c r="Q6" s="120"/>
-      <c r="R6" s="120"/>
-      <c r="T6" s="137" t="s">
+      <c r="Q6" s="142"/>
+      <c r="R6" s="142"/>
+      <c r="T6" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="U6" s="137"/>
+      <c r="U6" s="121"/>
     </row>
     <row r="7" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
-        <v>100</v>
+      <c r="B7" s="106" t="s">
+        <v>99</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>29</v>
@@ -2445,7 +2460,7 @@
         <v>29</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L7" s="46" t="s">
         <v>2</v>
@@ -2471,77 +2486,77 @@
     </row>
     <row r="8" spans="2:23" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B8" s="80" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="141" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="C8" s="107" t="s">
+        <v>90</v>
       </c>
       <c r="E8" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="H8" s="80" t="s">
+      <c r="M8" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="I8" s="80" t="s">
-        <v>89</v>
-      </c>
-      <c r="K8" s="81" t="s">
-        <v>89</v>
-      </c>
-      <c r="L8" s="81" t="s">
-        <v>90</v>
-      </c>
-      <c r="M8" s="81" t="s">
-        <v>90</v>
-      </c>
       <c r="P8" s="91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q8" s="91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R8" s="91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T8" s="82" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U8" s="99" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="109"/>
-      <c r="E10" s="109" t="s">
+      <c r="C10" s="131"/>
+      <c r="E10" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="109"/>
-      <c r="K10" s="118" t="s">
-        <v>81</v>
-      </c>
-      <c r="L10" s="118"/>
-      <c r="P10" s="105" t="s">
+      <c r="F10" s="131"/>
+      <c r="K10" s="133" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="133"/>
+      <c r="P10" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="Q10" s="105"/>
-      <c r="T10" s="137" t="s">
+      <c r="Q10" s="111"/>
+      <c r="T10" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="U10" s="137"/>
+      <c r="U10" s="121"/>
     </row>
     <row r="11" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>23</v>
@@ -2553,7 +2568,7 @@
         <v>24</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P11" s="64" t="s">
         <v>69</v>
@@ -2570,73 +2585,73 @@
     </row>
     <row r="12" spans="2:23" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B12" s="83" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" s="103" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" s="83" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K12" s="81" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L12" s="81" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P12" s="94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q12" s="97" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T12" s="82" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U12" s="82" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="109" t="s">
+      <c r="B14" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="F14" s="109" t="s">
+      <c r="C14" s="131"/>
+      <c r="D14" s="131"/>
+      <c r="F14" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109"/>
-      <c r="K14" s="119" t="s">
+      <c r="G14" s="131"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="131"/>
+      <c r="K14" s="134" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="134"/>
+      <c r="P14" s="143" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q14" s="143"/>
+      <c r="R14" s="143"/>
+      <c r="T14" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="L14" s="119"/>
-      <c r="P14" s="121" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q14" s="121"/>
-      <c r="R14" s="121"/>
-      <c r="T14" s="131" t="s">
-        <v>87</v>
-      </c>
-      <c r="U14" s="131"/>
-      <c r="V14" s="131"/>
-      <c r="W14" s="131"/>
+      <c r="U14" s="115"/>
+      <c r="V14" s="115"/>
+      <c r="W14" s="115"/>
     </row>
     <row r="15" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="110" t="s">
+      <c r="C15" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="110"/>
+      <c r="D15" s="137"/>
       <c r="F15" s="8" t="s">
         <v>39</v>
       </c>
@@ -2650,7 +2665,7 @@
         <v>36</v>
       </c>
       <c r="K15" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L15" s="48" t="s">
         <v>2</v>
@@ -2679,70 +2694,70 @@
     </row>
     <row r="16" spans="2:23" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B16" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="123" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="123"/>
-      <c r="F16" s="142" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="142" t="s">
-        <v>97</v>
-      </c>
-      <c r="H16" s="142" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="130" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="130"/>
+      <c r="F16" s="108" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="108" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="84" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="I16" s="142" t="s">
-        <v>94</v>
-      </c>
-      <c r="K16" s="84" t="s">
-        <v>89</v>
-      </c>
-      <c r="L16" s="96" t="s">
-        <v>91</v>
-      </c>
       <c r="P16" s="92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R16" s="92" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T16" s="93" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U16" s="93" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V16" s="93" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W16" s="93" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="2:30" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="18" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="132" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="K18" s="119" t="s">
-        <v>84</v>
-      </c>
-      <c r="L18" s="119"/>
-      <c r="P18" s="122" t="s">
+      <c r="C18" s="132"/>
+      <c r="K18" s="134" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18" s="134"/>
+      <c r="P18" s="129" t="s">
         <v>58</v>
       </c>
-      <c r="Q18" s="122"/>
-      <c r="T18" s="131" t="s">
+      <c r="Q18" s="129"/>
+      <c r="T18" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="U18" s="131"/>
+      <c r="U18" s="115"/>
     </row>
     <row r="19" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="11" t="s">
@@ -2755,13 +2770,13 @@
         <v>24</v>
       </c>
       <c r="L19" s="49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P19" s="69" t="s">
         <v>67</v>
       </c>
       <c r="Q19" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T19" s="100" t="s">
         <v>73</v>
@@ -2772,45 +2787,46 @@
     </row>
     <row r="20" spans="2:30" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B20" s="85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" s="85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K20" s="84" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L20" s="84" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P20" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q20" s="98" t="s">
+        <v>94</v>
+      </c>
+      <c r="T20" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="U20" s="93" t="s">
         <v>97</v>
-      </c>
-      <c r="Q20" s="98" t="s">
-        <v>95</v>
-      </c>
-      <c r="T20" s="93" t="s">
-        <v>89</v>
-      </c>
-      <c r="U20" s="93" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="21" spans="2:30" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="22" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K22" s="127" t="s">
+      <c r="K22" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="L22" s="127"/>
-      <c r="M22" s="127"/>
-      <c r="P22" s="136" t="s">
+      <c r="L22" s="125"/>
+      <c r="M22" s="125"/>
+      <c r="P22" s="120" t="s">
         <v>78</v>
       </c>
-      <c r="Q22" s="136"/>
-      <c r="T22" s="132" t="s">
-        <v>79</v>
-      </c>
-      <c r="U22" s="132"/>
+      <c r="Q22" s="120"/>
+      <c r="T22" s="144" t="s">
+        <v>102</v>
+      </c>
+      <c r="U22" s="145"/>
+      <c r="V22" s="145"/>
       <c r="AD22" s="71"/>
     </row>
     <row r="23" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2833,44 +2849,50 @@
         <v>73</v>
       </c>
       <c r="U23" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="V23" s="32" t="s">
         <v>59</v>
       </c>
       <c r="AD23" s="70"/>
     </row>
     <row r="24" spans="2:30" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="K24" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L24" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M24" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P24" s="86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q24" s="86" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T24" s="88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U24" s="88" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="V24" s="88" t="s">
+        <v>88</v>
       </c>
       <c r="AD24" s="70"/>
     </row>
     <row r="25" spans="2:30" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="26" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K26" s="127" t="s">
+      <c r="K26" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="127"/>
-      <c r="T26" s="132" t="s">
+      <c r="L26" s="125"/>
+      <c r="T26" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="U26" s="132"/>
+      <c r="U26" s="116"/>
     </row>
     <row r="27" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K27" s="53" t="s">
@@ -2883,43 +2905,43 @@
         <v>75</v>
       </c>
       <c r="U27" s="74" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="2:30" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="K28" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L28" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T28" s="88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U28" s="102" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="2:30" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="30" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K30" s="124" t="s">
+      <c r="K30" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="L30" s="124"/>
-      <c r="M30" s="124"/>
-      <c r="T30" s="133" t="s">
+      <c r="L30" s="122"/>
+      <c r="M30" s="122"/>
+      <c r="T30" s="117" t="s">
         <v>76</v>
       </c>
-      <c r="U30" s="133"/>
+      <c r="U30" s="117"/>
     </row>
     <row r="31" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K31" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="L31" s="125" t="s">
+      <c r="L31" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="M31" s="125"/>
+      <c r="M31" s="123"/>
       <c r="T31" s="33" t="s">
         <v>73</v>
       </c>
@@ -2929,26 +2951,26 @@
     </row>
     <row r="32" spans="2:30" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="K32" s="89" t="s">
-        <v>97</v>
-      </c>
-      <c r="L32" s="129" t="s">
-        <v>95</v>
-      </c>
-      <c r="M32" s="129"/>
+        <v>96</v>
+      </c>
+      <c r="L32" s="127" t="s">
+        <v>94</v>
+      </c>
+      <c r="M32" s="127"/>
       <c r="T32" s="95" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U32" s="95" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="11:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="34" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K34" s="124" t="s">
+      <c r="K34" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="L34" s="124"/>
-      <c r="M34" s="124"/>
+      <c r="L34" s="122"/>
+      <c r="M34" s="122"/>
     </row>
     <row r="35" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K35" s="55" t="s">
@@ -2963,21 +2985,21 @@
     </row>
     <row r="36" spans="11:13" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="K36" s="89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L36" s="89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="11:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="38" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K38" s="124" t="s">
+      <c r="K38" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="L38" s="124"/>
+      <c r="L38" s="122"/>
     </row>
     <row r="39" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K39" s="58" t="s">
@@ -2989,10 +3011,10 @@
     </row>
     <row r="40" spans="11:13" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="K40" s="89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L40" s="89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="11:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3000,37 +3022,37 @@
       <c r="L41" s="75"/>
     </row>
     <row r="42" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K42" s="126" t="s">
+      <c r="K42" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="L42" s="126"/>
-      <c r="M42" s="126"/>
+      <c r="L42" s="124"/>
+      <c r="M42" s="124"/>
     </row>
     <row r="43" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K43" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="L43" s="128" t="s">
+      <c r="L43" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="M43" s="128"/>
+      <c r="M43" s="126"/>
     </row>
     <row r="44" spans="11:13" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="K44" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="L44" s="130" t="s">
-        <v>95</v>
-      </c>
-      <c r="M44" s="130"/>
+        <v>96</v>
+      </c>
+      <c r="L44" s="128" t="s">
+        <v>94</v>
+      </c>
+      <c r="M44" s="128"/>
     </row>
     <row r="45" spans="11:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="46" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K46" s="126" t="s">
+      <c r="K46" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="L46" s="126"/>
-      <c r="M46" s="126"/>
+      <c r="L46" s="124"/>
+      <c r="M46" s="124"/>
     </row>
     <row r="47" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K47" s="60" t="s">
@@ -3045,21 +3067,21 @@
     </row>
     <row r="48" spans="11:13" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="K48" s="90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L48" s="90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M48" s="90" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="11:12" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="50" spans="11:12" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K50" s="126" t="s">
+      <c r="K50" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="L50" s="126"/>
+      <c r="L50" s="124"/>
     </row>
     <row r="51" spans="11:12" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K51" s="63" t="s">
@@ -3071,24 +3093,33 @@
     </row>
     <row r="52" spans="11:12" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="K52" s="90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L52" s="90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="11:12" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F14:I14"/>
     <mergeCell ref="K30:M30"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="K34:M34"/>
@@ -3101,27 +3132,18 @@
     <mergeCell ref="K46:M46"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="L44:M44"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T10:U10"/>
     <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="P6:R6"/>
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="P14:R14"/>
+    <mergeCell ref="T22:V22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/EsquemaGestionBiblioteca.xlsx
+++ b/EsquemaGestionBiblioteca.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\OneDrive - Universidad de Antioquia\Escritorio\SQL_Practicas\SQL_GestionBiblioteca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD3820A-F8B0-4504-B63E-4C76C138FC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822049A7-42C3-48E0-B2BC-B3F15626767A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12096" activeTab="1" xr2:uid="{B93947F0-A758-4779-A13A-F1311E76CF00}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12096" activeTab="2" xr2:uid="{B93947F0-A758-4779-A13A-F1311E76CF00}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablas_iniciales" sheetId="1" r:id="rId1"/>
     <sheet name="Tablas_Normalizadas" sheetId="5" r:id="rId2"/>
+    <sheet name="Tablas_TiposDeDatos" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="105">
   <si>
     <t>Usuario</t>
   </si>
@@ -368,6 +369,12 @@
   </si>
   <si>
     <t>MultaPrestamoDevolucion</t>
+  </si>
+  <si>
+    <t>idNumero</t>
+  </si>
+  <si>
+    <t>abreviatura</t>
   </si>
 </sst>
 </file>
@@ -644,7 +651,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="110">
     <border>
       <left/>
       <right/>
@@ -1004,21 +1011,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="3" tint="9.9887081514938816E-2"/>
-      </left>
-      <right style="thin">
-        <color theme="3" tint="9.9887081514938816E-2"/>
-      </right>
-      <top style="thick">
-        <color theme="3" tint="9.9948118533890809E-2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="3" tint="9.9887081514938816E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="5" tint="-0.499984740745262"/>
       </left>
       <right style="thin">
@@ -1324,13 +1316,881 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="9.9887081514938816E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="9.9887081514938816E-2"/>
+      </right>
+      <top style="thick">
+        <color theme="3" tint="9.9948118533890809E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="0.39991454817346722"/>
+      </left>
+      <right style="thin">
+        <color theme="7" tint="0.39991454817346722"/>
+      </right>
+      <top style="thick">
+        <color theme="7" tint="0.39994506668294322"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="5" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="5" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE97737"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE97737"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE97737"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE97737"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="8" tint="0.39994506668294322"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="8" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="thick">
+        <color theme="8" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="8" tint="0.39994506668294322"/>
+      </right>
+      <top style="thick">
+        <color theme="8" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="thick">
+        <color theme="8" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9" tint="0.79998168889431442"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="9" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thick">
+        <color theme="9" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="9" tint="0.79998168889431442"/>
+      </right>
+      <top style="thick">
+        <color theme="9" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thick">
+        <color theme="9" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFE97737"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFE97737"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFE97737"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFE97737"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFE97737"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFE97737"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="7" tint="0.59996337778862885"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="7" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thick">
+        <color theme="7" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="7" tint="0.59996337778862885"/>
+      </right>
+      <top style="thick">
+        <color theme="7" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thick">
+        <color theme="7" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="7" tint="0.39994506668294322"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="7" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="thick">
+        <color theme="7" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="7" tint="0.39994506668294322"/>
+      </right>
+      <top style="thick">
+        <color theme="7" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="thick">
+        <color theme="7" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="8" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="thick">
+        <color theme="8" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9" tint="0.59996337778862885"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="9" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thick">
+        <color theme="9" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="9" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thick">
+        <color theme="9" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="9" tint="0.59996337778862885"/>
+      </right>
+      <top style="thick">
+        <color theme="9" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thick">
+        <color theme="9" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="7" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="thick">
+        <color theme="7" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thick">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thick">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9" tint="0.39994506668294322"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="9" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="thick">
+        <color theme="9" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="9" tint="0.39994506668294322"/>
+      </right>
+      <top style="thick">
+        <color theme="9" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="thick">
+        <color theme="9" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="9.9887081514938816E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="9.9887081514938816E-2"/>
+      </right>
+      <top style="thick">
+        <color theme="3" tint="9.9948118533890809E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="9.985656300546282E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="0.39991454817346722"/>
+      </left>
+      <right style="thin">
+        <color theme="7" tint="0.39991454817346722"/>
+      </right>
+      <top style="thick">
+        <color theme="7" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7" tint="0.39988402966399123"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="0.39991454817346722"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="7" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7" tint="0.39988402966399123"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="7" tint="0.39991454817346722"/>
+      </right>
+      <top style="thick">
+        <color theme="7" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7" tint="0.39988402966399123"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.39991454817346722"/>
+      </left>
+      <right style="thin">
+        <color theme="5" tint="0.39991454817346722"/>
+      </right>
+      <top style="thick">
+        <color theme="5" tint="0.39994506668294322"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.59996337778862885"/>
+      </left>
+      <right style="thin">
+        <color theme="5" tint="0.59996337778862885"/>
+      </right>
+      <top style="thin">
+        <color theme="5" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.79995117038483843"/>
+      </left>
+      <right style="thin">
+        <color theme="5" tint="0.79995117038483843"/>
+      </right>
+      <top style="thick">
+        <color theme="5" tint="0.79998168889431442"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39991454817346722"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="0.39991454817346722"/>
+      </right>
+      <top style="thick">
+        <color theme="9" tint="0.39994506668294322"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.59996337778862885"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="0.59996337778862885"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.79995117038483843"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="0.79995117038483843"/>
+      </right>
+      <top style="thick">
+        <color theme="9" tint="0.79998168889431442"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="8" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="8" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="0.39991454817346722"/>
+      </left>
+      <right style="thin">
+        <color theme="8" tint="0.39991454817346722"/>
+      </right>
+      <top style="thick">
+        <color theme="8" tint="0.39994506668294322"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="0.59996337778862885"/>
+      </left>
+      <right style="thin">
+        <color theme="8" tint="0.59996337778862885"/>
+      </right>
+      <top style="thin">
+        <color theme="8" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="0.79995117038483843"/>
+      </left>
+      <right style="thin">
+        <color theme="8" tint="0.79995117038483843"/>
+      </right>
+      <top style="thick">
+        <color theme="8" tint="0.79998168889431442"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="9.982604449598681E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="9.982604449598681E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="9.982604449598681E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="9.982604449598681E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="0.39994506668294322"/>
+      </left>
+      <right style="thin">
+        <color theme="7" tint="0.39994506668294322"/>
+      </right>
+      <top style="thin">
+        <color theme="7" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="0.39994506668294322"/>
+      </left>
+      <right style="thin">
+        <color theme="7" tint="0.39994506668294322"/>
+      </right>
+      <top style="thick">
+        <color theme="7" tint="0.39994506668294322"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="0.59996337778862885"/>
+      </left>
+      <right style="thin">
+        <color theme="7" tint="0.59996337778862885"/>
+      </right>
+      <top style="thick">
+        <color theme="7" tint="0.59996337778862885"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="5" tint="-0.499984740745262"/>
+      </right>
+      <top style="thick">
+        <color theme="5" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE97737"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE97737"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFE97737"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.39994506668294322"/>
+      </left>
+      <right style="thin">
+        <color theme="5" tint="0.39994506668294322"/>
+      </right>
+      <top style="thin">
+        <color theme="5" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.59996337778862885"/>
+      </left>
+      <right style="thin">
+        <color theme="5" tint="0.59996337778862885"/>
+      </right>
+      <top style="thick">
+        <color theme="5" tint="0.59996337778862885"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.79998168889431442"/>
+      </left>
+      <right style="thin">
+        <color theme="5" tint="0.79998168889431442"/>
+      </right>
+      <top style="thin">
+        <color theme="5" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39994506668294322"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="0.39994506668294322"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.59996337778862885"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="0.59996337778862885"/>
+      </right>
+      <top style="thick">
+        <color theme="9" tint="0.59996337778862885"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.79998168889431442"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="0.79998168889431442"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color theme="8" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="0.39994506668294322"/>
+      </left>
+      <right style="thin">
+        <color theme="8" tint="0.39994506668294322"/>
+      </right>
+      <top style="thin">
+        <color theme="8" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="0.59996337778862885"/>
+      </left>
+      <right style="thin">
+        <color theme="8" tint="0.59996337778862885"/>
+      </right>
+      <top style="thick">
+        <color theme="8" tint="0.59996337778862885"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="0.79998168889431442"/>
+      </left>
+      <right style="thin">
+        <color theme="8" tint="0.79998168889431442"/>
+      </right>
+      <top style="thin">
+        <color theme="8" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.79998168889431442"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1572,108 +2432,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1695,76 +2606,283 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="98" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="101" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="102" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="103" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="104" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="109" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1775,9 +2893,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE97737"/>
       <color rgb="FFFFE5F2"/>
       <color rgb="FFFFFFCC"/>
-      <color rgb="FFE97737"/>
       <color rgb="FFE76821"/>
       <color rgb="FF943F10"/>
       <color rgb="FFA24512"/>
@@ -2129,15 +3247,15 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:10" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
     </row>
     <row r="3" spans="2:10" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="8" t="s">
@@ -2164,17 +3282,17 @@
     </row>
     <row r="4" spans="2:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="2:10" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
     </row>
     <row r="6" spans="2:10" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="39" t="s">
@@ -2198,21 +3316,21 @@
       <c r="H6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="113" t="s">
+      <c r="I6" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="113"/>
+      <c r="J6" s="111"/>
     </row>
     <row r="7" spans="2:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="2:10" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="111" t="s">
+      <c r="B8" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -2237,8 +3355,8 @@
         <v>21</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
     </row>
     <row r="10" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
@@ -2255,52 +3373,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8557BD5F-FF78-4562-9CA3-2C356136C443}">
-  <dimension ref="B1:AD53"/>
+  <dimension ref="B1:AD54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="K2" s="139" t="s">
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="K2" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="139"/>
-      <c r="P2" s="140" t="s">
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="P2" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="T2" s="118" t="s">
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="T2" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="U2" s="119"/>
-      <c r="V2" s="119"/>
-      <c r="W2" s="119"/>
+      <c r="U2" s="136"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="136"/>
     </row>
     <row r="3" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="105" t="s">
+      <c r="D3" s="103" t="s">
         <v>98</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -2353,95 +3471,95 @@
       </c>
     </row>
     <row r="4" spans="2:23" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="76" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="76" t="s">
+      <c r="B4" s="178" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="178" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="76" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="76" t="s">
+      <c r="D4" s="178" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="178" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="178" t="s">
         <v>89</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="178" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="76" t="s">
+      <c r="H4" s="178" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="76" t="s">
+      <c r="I4" s="178" t="s">
         <v>89</v>
       </c>
-      <c r="K4" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="L4" s="77" t="s">
+      <c r="K4" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="M4" s="77" t="s">
+      <c r="M4" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="78" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q4" s="78" t="s">
+      <c r="P4" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q4" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="T4" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="U4" s="79" t="s">
+      <c r="T4" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="U4" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="W4" s="79" t="s">
+      <c r="W4" s="78" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="5" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="136"/>
-      <c r="E6" s="135" t="s">
+      <c r="C6" s="117"/>
+      <c r="E6" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="136"/>
-      <c r="H6" s="141" t="s">
+      <c r="F6" s="117"/>
+      <c r="H6" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="141"/>
-      <c r="K6" s="133" t="s">
+      <c r="I6" s="118"/>
+      <c r="K6" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="L6" s="133"/>
-      <c r="M6" s="133"/>
-      <c r="P6" s="142" t="s">
+      <c r="L6" s="120"/>
+      <c r="M6" s="120"/>
+      <c r="P6" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="Q6" s="142"/>
-      <c r="R6" s="142"/>
-      <c r="T6" s="121" t="s">
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="T6" s="138" t="s">
         <v>71</v>
       </c>
-      <c r="U6" s="121"/>
+      <c r="U6" s="138"/>
     </row>
     <row r="7" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="104" t="s">
         <v>99</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -2485,71 +3603,71 @@
       </c>
     </row>
     <row r="8" spans="2:23" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="107" t="s">
+      <c r="C8" s="105" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="80" t="s">
+      <c r="E8" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="K8" s="81" t="s">
-        <v>88</v>
-      </c>
-      <c r="L8" s="81" t="s">
+      <c r="H8" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="M8" s="81" t="s">
+      <c r="M8" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="P8" s="91" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q8" s="91" t="s">
-        <v>88</v>
-      </c>
-      <c r="R8" s="91" t="s">
-        <v>88</v>
-      </c>
-      <c r="T8" s="82" t="s">
+      <c r="P8" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q8" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="R8" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="T8" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="U8" s="99" t="s">
+      <c r="U8" s="98" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="9" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="131"/>
-      <c r="E10" s="131" t="s">
+      <c r="C10" s="171"/>
+      <c r="E10" s="169" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="131"/>
-      <c r="K10" s="133" t="s">
+      <c r="F10" s="171"/>
+      <c r="K10" s="176" t="s">
         <v>80</v>
       </c>
-      <c r="L10" s="133"/>
-      <c r="P10" s="111" t="s">
+      <c r="L10" s="177"/>
+      <c r="P10" s="174" t="s">
         <v>64</v>
       </c>
-      <c r="Q10" s="111"/>
-      <c r="T10" s="121" t="s">
+      <c r="Q10" s="175"/>
+      <c r="T10" s="172" t="s">
         <v>65</v>
       </c>
-      <c r="U10" s="121"/>
+      <c r="U10" s="173"/>
     </row>
     <row r="11" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="8" t="s">
@@ -2584,74 +3702,74 @@
       </c>
     </row>
     <row r="12" spans="2:23" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="179" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="180" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="83" t="s">
+      <c r="E12" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="K12" s="81" t="s">
-        <v>88</v>
-      </c>
-      <c r="L12" s="81" t="s">
-        <v>88</v>
-      </c>
-      <c r="P12" s="94" t="s">
+      <c r="K12" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="P12" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="Q12" s="97" t="s">
+      <c r="Q12" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="T12" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="U12" s="82" t="s">
+      <c r="T12" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="U12" s="81" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="131" t="s">
+      <c r="B14" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
-      <c r="F14" s="131" t="s">
+      <c r="C14" s="170"/>
+      <c r="D14" s="171"/>
+      <c r="F14" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="131"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="131"/>
-      <c r="K14" s="134" t="s">
+      <c r="G14" s="170"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="171"/>
+      <c r="K14" s="159" t="s">
         <v>85</v>
       </c>
-      <c r="L14" s="134"/>
-      <c r="P14" s="143" t="s">
+      <c r="L14" s="160"/>
+      <c r="P14" s="166" t="s">
         <v>68</v>
       </c>
-      <c r="Q14" s="143"/>
-      <c r="R14" s="143"/>
-      <c r="T14" s="115" t="s">
+      <c r="Q14" s="167"/>
+      <c r="R14" s="168"/>
+      <c r="T14" s="155" t="s">
         <v>86</v>
       </c>
-      <c r="U14" s="115"/>
-      <c r="V14" s="115"/>
-      <c r="W14" s="115"/>
+      <c r="U14" s="165"/>
+      <c r="V14" s="165"/>
+      <c r="W14" s="156"/>
     </row>
     <row r="15" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="137" t="s">
+      <c r="C15" s="163" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="137"/>
+      <c r="D15" s="164"/>
       <c r="F15" s="8" t="s">
         <v>39</v>
       </c>
@@ -2693,71 +3811,71 @@
       </c>
     </row>
     <row r="16" spans="2:23" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="179" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="130" t="s">
+      <c r="C16" s="181" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="130"/>
-      <c r="F16" s="108" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="108" t="s">
+      <c r="D16" s="182"/>
+      <c r="F16" s="106" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="108" t="s">
+      <c r="H16" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="I16" s="108" t="s">
+      <c r="I16" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="84" t="s">
-        <v>88</v>
-      </c>
-      <c r="L16" s="96" t="s">
+      <c r="K16" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="P16" s="92" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q16" s="92" t="s">
-        <v>88</v>
-      </c>
-      <c r="R16" s="92" t="s">
+      <c r="P16" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q16" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="R16" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="T16" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="U16" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="V16" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="W16" s="93" t="s">
+      <c r="T16" s="92" t="s">
+        <v>88</v>
+      </c>
+      <c r="U16" s="92" t="s">
+        <v>88</v>
+      </c>
+      <c r="V16" s="92" t="s">
+        <v>88</v>
+      </c>
+      <c r="W16" s="92" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="2:30" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="18" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="132" t="s">
+      <c r="B18" s="161" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="132"/>
-      <c r="K18" s="134" t="s">
+      <c r="C18" s="162"/>
+      <c r="K18" s="159" t="s">
         <v>83</v>
       </c>
-      <c r="L18" s="134"/>
-      <c r="P18" s="129" t="s">
+      <c r="L18" s="160"/>
+      <c r="P18" s="157" t="s">
         <v>58</v>
       </c>
-      <c r="Q18" s="129"/>
-      <c r="T18" s="115" t="s">
+      <c r="Q18" s="158"/>
+      <c r="T18" s="155" t="s">
         <v>72</v>
       </c>
-      <c r="U18" s="115"/>
+      <c r="U18" s="156"/>
     </row>
     <row r="19" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="11" t="s">
@@ -2778,55 +3896,55 @@
       <c r="Q19" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="T19" s="100" t="s">
+      <c r="T19" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="U19" s="101" t="s">
+      <c r="U19" s="100" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="20" spans="2:30" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="K20" s="84" t="s">
-        <v>88</v>
-      </c>
-      <c r="L20" s="84" t="s">
-        <v>88</v>
-      </c>
-      <c r="P20" s="86" t="s">
+      <c r="B20" s="84" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="84" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="P20" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="Q20" s="98" t="s">
+      <c r="Q20" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="T20" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="U20" s="93" t="s">
+      <c r="T20" s="92" t="s">
+        <v>88</v>
+      </c>
+      <c r="U20" s="92" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="21" spans="2:30" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="22" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K22" s="125" t="s">
+      <c r="K22" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="L22" s="125"/>
-      <c r="M22" s="125"/>
-      <c r="P22" s="120" t="s">
+      <c r="L22" s="128"/>
+      <c r="M22" s="128"/>
+      <c r="P22" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="Q22" s="120"/>
-      <c r="T22" s="144" t="s">
+      <c r="Q22" s="137"/>
+      <c r="T22" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="U22" s="145"/>
-      <c r="V22" s="145"/>
+      <c r="U22" s="142"/>
+      <c r="V22" s="142"/>
       <c r="AD22" s="71"/>
     </row>
     <row r="23" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2857,42 +3975,52 @@
       <c r="AD23" s="70"/>
     </row>
     <row r="24" spans="2:30" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="K24" s="87" t="s">
-        <v>88</v>
-      </c>
-      <c r="L24" s="87" t="s">
-        <v>88</v>
-      </c>
-      <c r="M24" s="87" t="s">
-        <v>88</v>
-      </c>
-      <c r="P24" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q24" s="86" t="s">
+      <c r="K24" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="L24" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="M24" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="P24" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q24" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="T24" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="U24" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="V24" s="88" t="s">
+      <c r="T24" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="U24" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="V24" s="87" t="s">
         <v>88</v>
       </c>
       <c r="AD24" s="70"/>
     </row>
-    <row r="25" spans="2:30" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="25" spans="2:30" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K25" s="143"/>
+      <c r="L25" s="143"/>
+      <c r="M25" s="143"/>
+      <c r="P25" s="143"/>
+      <c r="Q25" s="143"/>
+      <c r="T25" s="143"/>
+      <c r="U25" s="143"/>
+      <c r="V25" s="143"/>
+      <c r="AD25" s="70"/>
+    </row>
     <row r="26" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K26" s="125" t="s">
+      <c r="K26" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="125"/>
-      <c r="T26" s="116" t="s">
+      <c r="L26" s="128"/>
+      <c r="T26" s="133" t="s">
         <v>74</v>
       </c>
-      <c r="U26" s="116"/>
+      <c r="U26" s="133"/>
     </row>
     <row r="27" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K27" s="53" t="s">
@@ -2909,39 +4037,44 @@
       </c>
     </row>
     <row r="28" spans="2:30" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="K28" s="87" t="s">
-        <v>88</v>
-      </c>
-      <c r="L28" s="87" t="s">
-        <v>88</v>
-      </c>
-      <c r="T28" s="88" t="s">
+      <c r="K28" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="L28" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="T28" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="U28" s="102" t="s">
+      <c r="U28" s="101" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="2:30" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="2:30" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K29" s="143"/>
+      <c r="L29" s="143"/>
+      <c r="T29" s="143"/>
+      <c r="U29" s="144"/>
+    </row>
     <row r="30" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K30" s="122" t="s">
+      <c r="K30" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="L30" s="122"/>
-      <c r="M30" s="122"/>
-      <c r="T30" s="117" t="s">
+      <c r="L30" s="125"/>
+      <c r="M30" s="125"/>
+      <c r="T30" s="134" t="s">
         <v>76</v>
       </c>
-      <c r="U30" s="117"/>
+      <c r="U30" s="134"/>
     </row>
     <row r="31" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K31" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="L31" s="123" t="s">
+      <c r="L31" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="M31" s="123"/>
+      <c r="M31" s="126"/>
       <c r="T31" s="33" t="s">
         <v>73</v>
       </c>
@@ -2950,29 +4083,35 @@
       </c>
     </row>
     <row r="32" spans="2:30" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="K32" s="89" t="s">
+      <c r="K32" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="L32" s="127" t="s">
+      <c r="L32" s="130" t="s">
         <v>94</v>
       </c>
-      <c r="M32" s="127"/>
-      <c r="T32" s="95" t="s">
-        <v>88</v>
-      </c>
-      <c r="U32" s="95" t="s">
+      <c r="M32" s="130"/>
+      <c r="T32" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="U32" s="94" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="11:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="34" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K34" s="122" t="s">
+    <row r="33" spans="11:21" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K33" s="143"/>
+      <c r="L33" s="143"/>
+      <c r="M33" s="143"/>
+      <c r="T33" s="143"/>
+      <c r="U33" s="143"/>
+    </row>
+    <row r="34" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K34" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="L34" s="122"/>
-      <c r="M34" s="122"/>
-    </row>
-    <row r="35" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L34" s="125"/>
+      <c r="M34" s="125"/>
+    </row>
+    <row r="35" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K35" s="55" t="s">
         <v>44</v>
       </c>
@@ -2983,25 +4122,29 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="11:13" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="K36" s="89" t="s">
-        <v>88</v>
-      </c>
-      <c r="L36" s="89" t="s">
+    <row r="36" spans="11:21" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="K36" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="L36" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="M36" s="89" t="s">
+      <c r="M36" s="88" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="11:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="38" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K38" s="122" t="s">
+    <row r="37" spans="11:21" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K37" s="143"/>
+      <c r="L37" s="143"/>
+      <c r="M37" s="143"/>
+    </row>
+    <row r="38" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K38" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="L38" s="122"/>
-    </row>
-    <row r="39" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L38" s="125"/>
+    </row>
+    <row r="39" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K39" s="58" t="s">
         <v>24</v>
       </c>
@@ -3009,52 +4152,56 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="11:13" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="K40" s="89" t="s">
-        <v>88</v>
-      </c>
-      <c r="L40" s="89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="11:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K41" s="75"/>
-      <c r="L41" s="75"/>
-    </row>
-    <row r="42" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K42" s="124" t="s">
+    <row r="40" spans="11:21" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="K40" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="L40" s="88" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="11:21" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K41" s="143"/>
+      <c r="L41" s="143"/>
+    </row>
+    <row r="42" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K42" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="L42" s="124"/>
-      <c r="M42" s="124"/>
-    </row>
-    <row r="43" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L42" s="127"/>
+      <c r="M42" s="127"/>
+    </row>
+    <row r="43" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K43" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="L43" s="126" t="s">
+      <c r="L43" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="M43" s="126"/>
-    </row>
-    <row r="44" spans="11:13" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="K44" s="90" t="s">
+      <c r="M43" s="129"/>
+    </row>
+    <row r="44" spans="11:21" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="K44" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="L44" s="128" t="s">
+      <c r="L44" s="131" t="s">
         <v>94</v>
       </c>
-      <c r="M44" s="128"/>
-    </row>
-    <row r="45" spans="11:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="46" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K46" s="124" t="s">
+      <c r="M44" s="131"/>
+    </row>
+    <row r="45" spans="11:21" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K45" s="143"/>
+      <c r="L45" s="143"/>
+      <c r="M45" s="143"/>
+    </row>
+    <row r="46" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K46" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="L46" s="124"/>
-      <c r="M46" s="124"/>
-    </row>
-    <row r="47" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L46" s="127"/>
+      <c r="M46" s="127"/>
+    </row>
+    <row r="47" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K47" s="60" t="s">
         <v>49</v>
       </c>
@@ -3065,25 +4212,29 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="11:13" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="K48" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="L48" s="90" t="s">
+    <row r="48" spans="11:21" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="K48" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="L48" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="M48" s="90" t="s">
+      <c r="M48" s="89" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="11:12" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="50" spans="11:12" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K50" s="124" t="s">
+    <row r="49" spans="11:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K49" s="143"/>
+      <c r="L49" s="143"/>
+      <c r="M49" s="143"/>
+    </row>
+    <row r="50" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K50" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="L50" s="124"/>
-    </row>
-    <row r="51" spans="11:12" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L50" s="127"/>
+    </row>
+    <row r="51" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K51" s="63" t="s">
         <v>24</v>
       </c>
@@ -3091,35 +4242,33 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="11:12" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="K52" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="L52" s="90" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="11:12" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="11:13" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="K52" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="L52" s="89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="11:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K53" s="143"/>
+      <c r="L53" s="143"/>
+    </row>
+    <row r="54" spans="11:13" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F14:I14"/>
+  <mergeCells count="43">
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="T22:V22"/>
     <mergeCell ref="K30:M30"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="K34:M34"/>
@@ -3132,18 +4281,1189 @@
     <mergeCell ref="K46:M46"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="L44:M44"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="K6:M6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786E7316-EA20-46A2-BA29-9DC1D5078B34}">
+  <dimension ref="B1:AD66"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="K2" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="P2" s="115" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="T2" s="135" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" s="136"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="136"/>
+    </row>
+    <row r="3" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="107" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="U3" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="V3" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" s="72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="145" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="145" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="145" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="145" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="145" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="145" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="145" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="145" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="209" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="209" t="s">
+        <v>95</v>
+      </c>
+      <c r="M4" s="209" t="s">
+        <v>92</v>
+      </c>
+      <c r="N4" s="209" t="s">
+        <v>89</v>
+      </c>
+      <c r="P4" s="218" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q4" s="218" t="s">
+        <v>92</v>
+      </c>
+      <c r="R4" s="218" t="s">
+        <v>93</v>
+      </c>
+      <c r="T4" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="U4" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="V4" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="W4" s="78" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="201" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="201" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="201"/>
+      <c r="H5" s="201"/>
+      <c r="I5" s="201"/>
+      <c r="K5" s="151" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" s="151"/>
+      <c r="M5" s="151"/>
+      <c r="N5" s="151"/>
+      <c r="P5" s="188" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="188"/>
+      <c r="R5" s="188"/>
+      <c r="T5" s="195" t="s">
+        <v>103</v>
+      </c>
+      <c r="U5" s="195"/>
+      <c r="V5" s="195"/>
+      <c r="W5" s="195" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="116" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="117"/>
+      <c r="E7" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="117"/>
+      <c r="H7" s="118" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="118"/>
+      <c r="K7" s="120" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120"/>
+      <c r="P7" s="119" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="T7" s="138" t="s">
+        <v>71</v>
+      </c>
+      <c r="U7" s="138"/>
+    </row>
+    <row r="8" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="104" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="T8" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="U8" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="202" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="203" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="202" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="202" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="202" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="202" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="210" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" s="210" t="s">
+        <v>89</v>
+      </c>
+      <c r="M9" s="210" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" s="219" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q9" s="219" t="s">
+        <v>88</v>
+      </c>
+      <c r="R9" s="219" t="s">
+        <v>88</v>
+      </c>
+      <c r="T9" s="225" t="s">
+        <v>96</v>
+      </c>
+      <c r="U9" s="226" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="146" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="147" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="146" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="147"/>
+      <c r="H10" s="146" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="146" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="152" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" s="152"/>
+      <c r="M10" s="152"/>
+      <c r="P10" s="189" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q10" s="189" t="s">
+        <v>103</v>
+      </c>
+      <c r="R10" s="189" t="s">
+        <v>103</v>
+      </c>
+      <c r="T10" s="196" t="s">
+        <v>104</v>
+      </c>
+      <c r="U10" s="197" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="122" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="122"/>
+      <c r="E12" s="122" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="122"/>
+      <c r="K12" s="120" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" s="120"/>
+      <c r="P12" s="109" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q12" s="109"/>
+      <c r="T12" s="138" t="s">
+        <v>65</v>
+      </c>
+      <c r="U12" s="138"/>
+    </row>
+    <row r="13" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q13" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="T13" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="U13" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="148" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="149" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="82" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" s="210" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" s="210" t="s">
+        <v>88</v>
+      </c>
+      <c r="P14" s="190" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q14" s="191" t="s">
+        <v>90</v>
+      </c>
+      <c r="T14" s="225" t="s">
+        <v>88</v>
+      </c>
+      <c r="U14" s="225" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="204" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="205" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="204" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="204" t="s">
+        <v>104</v>
+      </c>
+      <c r="K15" s="152" t="s">
+        <v>103</v>
+      </c>
+      <c r="L15" s="152" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="220" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q15" s="221" t="s">
+        <v>87</v>
+      </c>
+      <c r="T15" s="196" t="s">
+        <v>103</v>
+      </c>
+      <c r="U15" s="196" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
+      <c r="F17" s="122" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="122"/>
+      <c r="K17" s="121" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="121"/>
+      <c r="P17" s="140" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q17" s="140"/>
+      <c r="R17" s="140"/>
+      <c r="T17" s="132" t="s">
+        <v>86</v>
+      </c>
+      <c r="U17" s="132"/>
+      <c r="V17" s="132"/>
+      <c r="W17" s="132"/>
+    </row>
+    <row r="18" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="123" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="123"/>
+      <c r="F18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="L18" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="R18" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="T18" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="U18" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="V18" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="W18" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="2:30" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="148" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="150" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="150"/>
+      <c r="F19" s="207" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="207" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" s="207" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" s="207" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" s="211" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" s="212" t="s">
+        <v>94</v>
+      </c>
+      <c r="P19" s="222" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q19" s="222" t="s">
+        <v>88</v>
+      </c>
+      <c r="R19" s="222" t="s">
+        <v>96</v>
+      </c>
+      <c r="T19" s="198" t="s">
+        <v>88</v>
+      </c>
+      <c r="U19" s="198" t="s">
+        <v>88</v>
+      </c>
+      <c r="V19" s="198" t="s">
+        <v>88</v>
+      </c>
+      <c r="W19" s="198" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="2:30" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="204" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="206" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="206"/>
+      <c r="F20" s="204" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="204" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="204"/>
+      <c r="I20" s="204"/>
+      <c r="K20" s="153" t="s">
+        <v>103</v>
+      </c>
+      <c r="L20" s="154"/>
+      <c r="P20" s="192" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q20" s="192" t="s">
+        <v>103</v>
+      </c>
+      <c r="R20" s="192" t="s">
+        <v>104</v>
+      </c>
+      <c r="T20" s="227" t="s">
+        <v>103</v>
+      </c>
+      <c r="U20" s="227" t="s">
+        <v>103</v>
+      </c>
+      <c r="V20" s="227" t="s">
+        <v>103</v>
+      </c>
+      <c r="W20" s="227" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="22" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="124" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="124"/>
+      <c r="K22" s="121" t="s">
+        <v>83</v>
+      </c>
+      <c r="L22" s="121"/>
+      <c r="P22" s="139" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q22" s="139"/>
+      <c r="T22" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="U22" s="132"/>
+    </row>
+    <row r="23" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="P23" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q23" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="T23" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="U23" s="100" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="208" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="208" t="s">
+        <v>88</v>
+      </c>
+      <c r="K24" s="211" t="s">
+        <v>88</v>
+      </c>
+      <c r="L24" s="211" t="s">
+        <v>88</v>
+      </c>
+      <c r="P24" s="193" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q24" s="194" t="s">
+        <v>90</v>
+      </c>
+      <c r="T24" s="198" t="s">
+        <v>88</v>
+      </c>
+      <c r="U24" s="198" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="2:30" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="204" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="204" t="s">
+        <v>103</v>
+      </c>
+      <c r="K25" s="153" t="s">
+        <v>103</v>
+      </c>
+      <c r="L25" s="153" t="s">
+        <v>103</v>
+      </c>
+      <c r="P25" s="223" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q25" s="224" t="s">
+        <v>87</v>
+      </c>
+      <c r="T25" s="227" t="s">
+        <v>103</v>
+      </c>
+      <c r="U25" s="227"/>
+    </row>
+    <row r="26" spans="2:30" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K27" s="128" t="s">
+        <v>56</v>
+      </c>
+      <c r="L27" s="128"/>
+      <c r="M27" s="128"/>
+      <c r="P27" s="137" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q27" s="137"/>
+      <c r="T27" s="141" t="s">
+        <v>102</v>
+      </c>
+      <c r="U27" s="142"/>
+      <c r="V27" s="142"/>
+      <c r="AD27" s="71"/>
+    </row>
+    <row r="28" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K28" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="L28" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="P28" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q28" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="T28" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="U28" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="V28" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD28" s="70"/>
+    </row>
+    <row r="29" spans="2:30" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="K29" s="183" t="s">
+        <v>88</v>
+      </c>
+      <c r="L29" s="183" t="s">
+        <v>88</v>
+      </c>
+      <c r="M29" s="183" t="s">
+        <v>88</v>
+      </c>
+      <c r="P29" s="193" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q29" s="193" t="s">
+        <v>96</v>
+      </c>
+      <c r="T29" s="228" t="s">
+        <v>88</v>
+      </c>
+      <c r="U29" s="228" t="s">
+        <v>88</v>
+      </c>
+      <c r="V29" s="228" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD29" s="70"/>
+    </row>
+    <row r="30" spans="2:30" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K30" s="213" t="s">
+        <v>103</v>
+      </c>
+      <c r="L30" s="213"/>
+      <c r="M30" s="213"/>
+      <c r="P30" s="223" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q30" s="223" t="s">
+        <v>104</v>
+      </c>
+      <c r="T30" s="199" t="s">
+        <v>103</v>
+      </c>
+      <c r="U30" s="199" t="s">
+        <v>103</v>
+      </c>
+      <c r="V30" s="199" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD30" s="70"/>
+    </row>
+    <row r="31" spans="2:30" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K32" s="128" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" s="128"/>
+      <c r="T32" s="133" t="s">
+        <v>74</v>
+      </c>
+      <c r="U32" s="133"/>
+    </row>
+    <row r="33" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K33" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="T33" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="U33" s="74" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="11:21" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="K34" s="183" t="s">
+        <v>88</v>
+      </c>
+      <c r="L34" s="183" t="s">
+        <v>88</v>
+      </c>
+      <c r="T34" s="228" t="s">
+        <v>96</v>
+      </c>
+      <c r="U34" s="229" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="11:21" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K35" s="213" t="s">
+        <v>103</v>
+      </c>
+      <c r="L35" s="213" t="s">
+        <v>103</v>
+      </c>
+      <c r="T35" s="199" t="s">
+        <v>104</v>
+      </c>
+      <c r="U35" s="230" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="11:21" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="37" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K37" s="125" t="s">
+        <v>46</v>
+      </c>
+      <c r="L37" s="125"/>
+      <c r="M37" s="125"/>
+      <c r="T37" s="134" t="s">
+        <v>76</v>
+      </c>
+      <c r="U37" s="134"/>
+    </row>
+    <row r="38" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K38" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="L38" s="126" t="s">
+        <v>47</v>
+      </c>
+      <c r="M38" s="126"/>
+      <c r="T38" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="U38" s="34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="11:21" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="K39" s="214" t="s">
+        <v>96</v>
+      </c>
+      <c r="L39" s="215" t="s">
+        <v>90</v>
+      </c>
+      <c r="M39" s="215"/>
+      <c r="T39" s="200" t="s">
+        <v>88</v>
+      </c>
+      <c r="U39" s="200" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="11:21" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K40" s="184" t="s">
+        <v>104</v>
+      </c>
+      <c r="L40" s="185" t="s">
+        <v>87</v>
+      </c>
+      <c r="M40" s="185"/>
+      <c r="T40" s="231" t="s">
+        <v>103</v>
+      </c>
+      <c r="U40" s="231" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="11:21" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="42" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K42" s="125" t="s">
+        <v>43</v>
+      </c>
+      <c r="L42" s="125"/>
+      <c r="M42" s="125"/>
+    </row>
+    <row r="43" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K43" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="L43" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="M43" s="57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="11:21" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="K44" s="214" t="s">
+        <v>88</v>
+      </c>
+      <c r="L44" s="214" t="s">
+        <v>92</v>
+      </c>
+      <c r="M44" s="214" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="11:21" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K45" s="184" t="s">
+        <v>103</v>
+      </c>
+      <c r="L45" s="184"/>
+      <c r="M45" s="184" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="11:21" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K47" s="125" t="s">
+        <v>26</v>
+      </c>
+      <c r="L47" s="125"/>
+    </row>
+    <row r="48" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K48" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="L48" s="58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="11:13" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="K49" s="214" t="s">
+        <v>88</v>
+      </c>
+      <c r="L49" s="214" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="11:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K50" s="184" t="s">
+        <v>103</v>
+      </c>
+      <c r="L50" s="184" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="11:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K51" s="75"/>
+      <c r="L51" s="75"/>
+    </row>
+    <row r="52" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K52" s="127" t="s">
+        <v>52</v>
+      </c>
+      <c r="L52" s="127"/>
+      <c r="M52" s="127"/>
+    </row>
+    <row r="53" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K53" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="L53" s="129" t="s">
+        <v>54</v>
+      </c>
+      <c r="M53" s="129"/>
+    </row>
+    <row r="54" spans="11:13" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="K54" s="186" t="s">
+        <v>96</v>
+      </c>
+      <c r="L54" s="187" t="s">
+        <v>90</v>
+      </c>
+      <c r="M54" s="187"/>
+    </row>
+    <row r="55" spans="11:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K55" s="216" t="s">
+        <v>104</v>
+      </c>
+      <c r="L55" s="217" t="s">
+        <v>87</v>
+      </c>
+      <c r="M55" s="217"/>
+    </row>
+    <row r="56" spans="11:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="57" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K57" s="127" t="s">
+        <v>50</v>
+      </c>
+      <c r="L57" s="127"/>
+      <c r="M57" s="127"/>
+    </row>
+    <row r="58" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K58" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="L58" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="M58" s="62" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="11:13" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="K59" s="186" t="s">
+        <v>88</v>
+      </c>
+      <c r="L59" s="186" t="s">
+        <v>92</v>
+      </c>
+      <c r="M59" s="186" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="11:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K60" s="216" t="s">
+        <v>103</v>
+      </c>
+      <c r="L60" s="216"/>
+      <c r="M60" s="216" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="11:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="62" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K62" s="127" t="s">
+        <v>48</v>
+      </c>
+      <c r="L62" s="127"/>
+    </row>
+    <row r="63" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K63" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="L63" s="63" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="11:13" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="K64" s="186" t="s">
+        <v>88</v>
+      </c>
+      <c r="L64" s="186" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="11:12" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K65" s="216" t="s">
+        <v>103</v>
+      </c>
+      <c r="L65" s="216" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="11:12" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="45">
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="P2:R2"/>
     <mergeCell ref="T2:W2"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="T7:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/EsquemaGestionBiblioteca.xlsx
+++ b/EsquemaGestionBiblioteca.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\OneDrive - Universidad de Antioquia\Escritorio\SQL_Practicas\SQL_GestionBiblioteca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822049A7-42C3-48E0-B2BC-B3F15626767A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7D7D48-FFCF-4F06-9C2A-B2041A2AC5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12096" activeTab="2" xr2:uid="{B93947F0-A758-4779-A13A-F1311E76CF00}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="109">
   <si>
     <t>Usuario</t>
   </si>
@@ -376,12 +376,24 @@
   <si>
     <t>abreviatura</t>
   </si>
+  <si>
+    <t>descripcionIdentidad</t>
+  </si>
+  <si>
+    <t>descripcionEstadoPrestamo</t>
+  </si>
+  <si>
+    <t>descripcionEstadoDevolucion</t>
+  </si>
+  <si>
+    <t>descripcionEstadoMulta</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,6 +523,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -2190,7 +2209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2513,6 +2532,189 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="98" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="101" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="102" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="103" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="104" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="109" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2528,362 +2730,194 @@
     <xf numFmtId="0" fontId="2" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="98" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="101" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="102" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="103" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="104" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="109" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3247,15 +3281,15 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:10" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
     </row>
     <row r="3" spans="2:10" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="8" t="s">
@@ -3282,17 +3316,17 @@
     </row>
     <row r="4" spans="2:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="2:10" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="173"/>
+      <c r="G5" s="173"/>
+      <c r="H5" s="173"/>
+      <c r="I5" s="173"/>
+      <c r="J5" s="173"/>
     </row>
     <row r="6" spans="2:10" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="39" t="s">
@@ -3316,21 +3350,21 @@
       <c r="H6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="111" t="s">
+      <c r="I6" s="172" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="111"/>
+      <c r="J6" s="172"/>
     </row>
     <row r="7" spans="2:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="2:10" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="170" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="170"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -3355,8 +3389,8 @@
         <v>21</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="169"/>
     </row>
     <row r="10" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
@@ -3383,33 +3417,33 @@
   <sheetData>
     <row r="1" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
       <c r="H2" s="102"/>
       <c r="I2" s="102"/>
-      <c r="K2" s="114" t="s">
+      <c r="K2" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="P2" s="115" t="s">
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="P2" s="175" t="s">
         <v>57</v>
       </c>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="T2" s="135" t="s">
+      <c r="Q2" s="175"/>
+      <c r="R2" s="175"/>
+      <c r="T2" s="205" t="s">
         <v>60</v>
       </c>
-      <c r="U2" s="136"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="136"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="206"/>
     </row>
     <row r="3" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="107" t="s">
@@ -3471,28 +3505,28 @@
       </c>
     </row>
     <row r="4" spans="2:23" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="178" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="178" t="s">
+      <c r="B4" s="122" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="178" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="178" t="s">
+      <c r="D4" s="122" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="178" t="s">
+      <c r="F4" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="G4" s="178" t="s">
+      <c r="G4" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="178" t="s">
+      <c r="H4" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="178" t="s">
+      <c r="I4" s="122" t="s">
         <v>89</v>
       </c>
       <c r="K4" s="76" t="s">
@@ -3531,32 +3565,32 @@
     </row>
     <row r="5" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="176" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="117"/>
-      <c r="E6" s="116" t="s">
+      <c r="C6" s="177"/>
+      <c r="E6" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="117"/>
-      <c r="H6" s="118" t="s">
+      <c r="F6" s="177"/>
+      <c r="H6" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="118"/>
-      <c r="K6" s="120" t="s">
+      <c r="I6" s="178"/>
+      <c r="K6" s="180" t="s">
         <v>82</v>
       </c>
-      <c r="L6" s="120"/>
-      <c r="M6" s="120"/>
-      <c r="P6" s="119" t="s">
+      <c r="L6" s="180"/>
+      <c r="M6" s="180"/>
+      <c r="P6" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="Q6" s="119"/>
-      <c r="R6" s="119"/>
-      <c r="T6" s="138" t="s">
+      <c r="Q6" s="179"/>
+      <c r="R6" s="179"/>
+      <c r="T6" s="208" t="s">
         <v>71</v>
       </c>
-      <c r="U6" s="138"/>
+      <c r="U6" s="208"/>
     </row>
     <row r="7" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="104" t="s">
@@ -3648,26 +3682,26 @@
     </row>
     <row r="9" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="169" t="s">
+      <c r="B10" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="171"/>
-      <c r="E10" s="169" t="s">
+      <c r="C10" s="184"/>
+      <c r="E10" s="183" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="171"/>
-      <c r="K10" s="176" t="s">
+      <c r="F10" s="184"/>
+      <c r="K10" s="187" t="s">
         <v>80</v>
       </c>
-      <c r="L10" s="177"/>
-      <c r="P10" s="174" t="s">
+      <c r="L10" s="188"/>
+      <c r="P10" s="213" t="s">
         <v>64</v>
       </c>
-      <c r="Q10" s="175"/>
-      <c r="T10" s="172" t="s">
+      <c r="Q10" s="214"/>
+      <c r="T10" s="209" t="s">
         <v>65</v>
       </c>
-      <c r="U10" s="173"/>
+      <c r="U10" s="210"/>
     </row>
     <row r="11" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="8" t="s">
@@ -3702,10 +3736,10 @@
       </c>
     </row>
     <row r="12" spans="2:23" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="179" t="s">
+      <c r="B12" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="180" t="s">
+      <c r="C12" s="124" t="s">
         <v>90</v>
       </c>
       <c r="E12" s="82" t="s">
@@ -3735,41 +3769,41 @@
     </row>
     <row r="13" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="169" t="s">
+      <c r="B14" s="183" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="170"/>
-      <c r="D14" s="171"/>
-      <c r="F14" s="169" t="s">
+      <c r="C14" s="185"/>
+      <c r="D14" s="184"/>
+      <c r="F14" s="183" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="170"/>
-      <c r="H14" s="170"/>
-      <c r="I14" s="171"/>
-      <c r="K14" s="159" t="s">
+      <c r="G14" s="185"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="184"/>
+      <c r="K14" s="189" t="s">
         <v>85</v>
       </c>
-      <c r="L14" s="160"/>
-      <c r="P14" s="166" t="s">
+      <c r="L14" s="190"/>
+      <c r="P14" s="215" t="s">
         <v>68</v>
       </c>
-      <c r="Q14" s="167"/>
-      <c r="R14" s="168"/>
-      <c r="T14" s="155" t="s">
+      <c r="Q14" s="216"/>
+      <c r="R14" s="217"/>
+      <c r="T14" s="200" t="s">
         <v>86</v>
       </c>
-      <c r="U14" s="165"/>
-      <c r="V14" s="165"/>
-      <c r="W14" s="156"/>
+      <c r="U14" s="201"/>
+      <c r="V14" s="201"/>
+      <c r="W14" s="202"/>
     </row>
     <row r="15" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="163" t="s">
+      <c r="C15" s="191" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="164"/>
+      <c r="D15" s="192"/>
       <c r="F15" s="8" t="s">
         <v>39</v>
       </c>
@@ -3811,7 +3845,7 @@
       </c>
     </row>
     <row r="16" spans="2:23" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="179" t="s">
+      <c r="B16" s="123" t="s">
         <v>96</v>
       </c>
       <c r="C16" s="181" t="s">
@@ -3860,22 +3894,22 @@
     </row>
     <row r="17" spans="2:30" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="18" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="161" t="s">
+      <c r="B18" s="120" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="162"/>
-      <c r="K18" s="159" t="s">
+      <c r="C18" s="121"/>
+      <c r="K18" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="L18" s="160"/>
-      <c r="P18" s="157" t="s">
+      <c r="L18" s="119"/>
+      <c r="P18" s="211" t="s">
         <v>58</v>
       </c>
-      <c r="Q18" s="158"/>
-      <c r="T18" s="155" t="s">
+      <c r="Q18" s="212"/>
+      <c r="T18" s="200" t="s">
         <v>72</v>
       </c>
-      <c r="U18" s="156"/>
+      <c r="U18" s="202"/>
     </row>
     <row r="19" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="11" t="s">
@@ -3931,20 +3965,20 @@
     </row>
     <row r="21" spans="2:30" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="22" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K22" s="128" t="s">
+      <c r="K22" s="196" t="s">
         <v>56</v>
       </c>
-      <c r="L22" s="128"/>
-      <c r="M22" s="128"/>
-      <c r="P22" s="137" t="s">
+      <c r="L22" s="196"/>
+      <c r="M22" s="196"/>
+      <c r="P22" s="207" t="s">
         <v>78</v>
       </c>
-      <c r="Q22" s="137"/>
-      <c r="T22" s="141" t="s">
+      <c r="Q22" s="207"/>
+      <c r="T22" s="218" t="s">
         <v>102</v>
       </c>
-      <c r="U22" s="142"/>
-      <c r="V22" s="142"/>
+      <c r="U22" s="219"/>
+      <c r="V22" s="219"/>
       <c r="AD22" s="71"/>
     </row>
     <row r="23" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4002,25 +4036,25 @@
       <c r="AD24" s="70"/>
     </row>
     <row r="25" spans="2:30" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K25" s="143"/>
-      <c r="L25" s="143"/>
-      <c r="M25" s="143"/>
-      <c r="P25" s="143"/>
-      <c r="Q25" s="143"/>
-      <c r="T25" s="143"/>
-      <c r="U25" s="143"/>
-      <c r="V25" s="143"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
       <c r="AD25" s="70"/>
     </row>
     <row r="26" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K26" s="128" t="s">
+      <c r="K26" s="196" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="128"/>
-      <c r="T26" s="133" t="s">
+      <c r="L26" s="196"/>
+      <c r="T26" s="203" t="s">
         <v>74</v>
       </c>
-      <c r="U26" s="133"/>
+      <c r="U26" s="203"/>
     </row>
     <row r="27" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K27" s="53" t="s">
@@ -4051,30 +4085,30 @@
       </c>
     </row>
     <row r="29" spans="2:30" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K29" s="143"/>
-      <c r="L29" s="143"/>
-      <c r="T29" s="143"/>
-      <c r="U29" s="144"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="108"/>
     </row>
     <row r="30" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K30" s="125" t="s">
+      <c r="K30" s="193" t="s">
         <v>46</v>
       </c>
-      <c r="L30" s="125"/>
-      <c r="M30" s="125"/>
-      <c r="T30" s="134" t="s">
+      <c r="L30" s="193"/>
+      <c r="M30" s="193"/>
+      <c r="T30" s="204" t="s">
         <v>76</v>
       </c>
-      <c r="U30" s="134"/>
+      <c r="U30" s="204"/>
     </row>
     <row r="31" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K31" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="L31" s="126" t="s">
+      <c r="L31" s="194" t="s">
         <v>47</v>
       </c>
-      <c r="M31" s="126"/>
+      <c r="M31" s="194"/>
       <c r="T31" s="33" t="s">
         <v>73</v>
       </c>
@@ -4086,10 +4120,10 @@
       <c r="K32" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="L32" s="130" t="s">
+      <c r="L32" s="198" t="s">
         <v>94</v>
       </c>
-      <c r="M32" s="130"/>
+      <c r="M32" s="198"/>
       <c r="T32" s="94" t="s">
         <v>88</v>
       </c>
@@ -4098,18 +4132,18 @@
       </c>
     </row>
     <row r="33" spans="11:21" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K33" s="143"/>
-      <c r="L33" s="143"/>
-      <c r="M33" s="143"/>
-      <c r="T33" s="143"/>
-      <c r="U33" s="143"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
     </row>
     <row r="34" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K34" s="125" t="s">
+      <c r="K34" s="193" t="s">
         <v>43</v>
       </c>
-      <c r="L34" s="125"/>
-      <c r="M34" s="125"/>
+      <c r="L34" s="193"/>
+      <c r="M34" s="193"/>
     </row>
     <row r="35" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K35" s="55" t="s">
@@ -4134,15 +4168,15 @@
       </c>
     </row>
     <row r="37" spans="11:21" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K37" s="143"/>
-      <c r="L37" s="143"/>
-      <c r="M37" s="143"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
     </row>
     <row r="38" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K38" s="125" t="s">
+      <c r="K38" s="193" t="s">
         <v>26</v>
       </c>
-      <c r="L38" s="125"/>
+      <c r="L38" s="193"/>
     </row>
     <row r="39" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K39" s="58" t="s">
@@ -4161,45 +4195,45 @@
       </c>
     </row>
     <row r="41" spans="11:21" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K41" s="143"/>
-      <c r="L41" s="143"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
     </row>
     <row r="42" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K42" s="127" t="s">
+      <c r="K42" s="195" t="s">
         <v>52</v>
       </c>
-      <c r="L42" s="127"/>
-      <c r="M42" s="127"/>
+      <c r="L42" s="195"/>
+      <c r="M42" s="195"/>
     </row>
     <row r="43" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K43" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="L43" s="129" t="s">
+      <c r="L43" s="197" t="s">
         <v>54</v>
       </c>
-      <c r="M43" s="129"/>
+      <c r="M43" s="197"/>
     </row>
     <row r="44" spans="11:21" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="K44" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="L44" s="131" t="s">
+      <c r="L44" s="199" t="s">
         <v>94</v>
       </c>
-      <c r="M44" s="131"/>
+      <c r="M44" s="199"/>
     </row>
     <row r="45" spans="11:21" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K45" s="143"/>
-      <c r="L45" s="143"/>
-      <c r="M45" s="143"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
     </row>
     <row r="46" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K46" s="127" t="s">
+      <c r="K46" s="195" t="s">
         <v>50</v>
       </c>
-      <c r="L46" s="127"/>
-      <c r="M46" s="127"/>
+      <c r="L46" s="195"/>
+      <c r="M46" s="195"/>
     </row>
     <row r="47" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K47" s="60" t="s">
@@ -4224,15 +4258,15 @@
       </c>
     </row>
     <row r="49" spans="11:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K49" s="143"/>
-      <c r="L49" s="143"/>
-      <c r="M49" s="143"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
     </row>
     <row r="50" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K50" s="127" t="s">
+      <c r="K50" s="195" t="s">
         <v>48</v>
       </c>
-      <c r="L50" s="127"/>
+      <c r="L50" s="195"/>
     </row>
     <row r="51" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K51" s="63" t="s">
@@ -4251,12 +4285,12 @@
       </c>
     </row>
     <row r="53" spans="11:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K53" s="143"/>
-      <c r="L53" s="143"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
     </row>
     <row r="54" spans="11:13" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="40">
     <mergeCell ref="T14:W14"/>
     <mergeCell ref="T26:U26"/>
     <mergeCell ref="T30:U30"/>
@@ -4290,9 +4324,6 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="F14:I14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="P2:R2"/>
@@ -4310,41 +4341,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786E7316-EA20-46A2-BA29-9DC1D5078B34}">
   <dimension ref="B1:AD66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
       <c r="H2" s="102"/>
       <c r="I2" s="102"/>
-      <c r="K2" s="114" t="s">
+      <c r="K2" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="P2" s="115" t="s">
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="P2" s="175" t="s">
         <v>57</v>
       </c>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="T2" s="135" t="s">
+      <c r="Q2" s="175"/>
+      <c r="R2" s="175"/>
+      <c r="T2" s="205" t="s">
         <v>60</v>
       </c>
-      <c r="U2" s="136"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="136"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="206"/>
     </row>
     <row r="3" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="107" t="s">
@@ -4406,49 +4437,49 @@
       </c>
     </row>
     <row r="4" spans="2:23" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="145" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="145" t="s">
+      <c r="B4" s="109" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="109" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="145" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="145" t="s">
+      <c r="D4" s="109" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="145" t="s">
+      <c r="F4" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="G4" s="145" t="s">
+      <c r="G4" s="109" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="145" t="s">
+      <c r="H4" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="145" t="s">
+      <c r="I4" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="K4" s="209" t="s">
-        <v>88</v>
-      </c>
-      <c r="L4" s="209" t="s">
+      <c r="K4" s="148" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="148" t="s">
         <v>95</v>
       </c>
-      <c r="M4" s="209" t="s">
+      <c r="M4" s="148" t="s">
         <v>92</v>
       </c>
-      <c r="N4" s="209" t="s">
+      <c r="N4" s="148" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="218" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q4" s="218" t="s">
+      <c r="P4" s="155" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q4" s="155" t="s">
         <v>92</v>
       </c>
-      <c r="R4" s="218" t="s">
+      <c r="R4" s="155" t="s">
         <v>93</v>
       </c>
       <c r="T4" s="78" t="s">
@@ -4465,73 +4496,73 @@
       </c>
     </row>
     <row r="5" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="201" t="s">
+      <c r="B5" s="141" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="201" t="s">
+      <c r="C5" s="141" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="201"/>
-      <c r="H5" s="201"/>
-      <c r="I5" s="201"/>
-      <c r="K5" s="151" t="s">
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="141"/>
+      <c r="K5" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="L5" s="151"/>
-      <c r="M5" s="151"/>
-      <c r="N5" s="151"/>
-      <c r="P5" s="188" t="s">
+      <c r="L5" s="114"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="114"/>
+      <c r="P5" s="128" t="s">
         <v>103</v>
       </c>
-      <c r="Q5" s="188"/>
-      <c r="R5" s="188"/>
-      <c r="T5" s="195" t="s">
+      <c r="Q5" s="128"/>
+      <c r="R5" s="128"/>
+      <c r="T5" s="135" t="s">
         <v>103</v>
       </c>
-      <c r="U5" s="195"/>
-      <c r="V5" s="195"/>
-      <c r="W5" s="195" t="s">
+      <c r="U5" s="135"/>
+      <c r="V5" s="135"/>
+      <c r="W5" s="135" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="176" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="117"/>
-      <c r="E7" s="116" t="s">
+      <c r="C7" s="177"/>
+      <c r="E7" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="117"/>
-      <c r="H7" s="118" t="s">
+      <c r="F7" s="177"/>
+      <c r="H7" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="118"/>
-      <c r="K7" s="120" t="s">
+      <c r="I7" s="178"/>
+      <c r="K7" s="180" t="s">
         <v>82</v>
       </c>
-      <c r="L7" s="120"/>
-      <c r="M7" s="120"/>
-      <c r="P7" s="119" t="s">
+      <c r="L7" s="180"/>
+      <c r="M7" s="180"/>
+      <c r="P7" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="T7" s="138" t="s">
+      <c r="Q7" s="179"/>
+      <c r="R7" s="179"/>
+      <c r="T7" s="208" t="s">
         <v>71</v>
       </c>
-      <c r="U7" s="138"/>
+      <c r="U7" s="208"/>
     </row>
     <row r="8" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>87</v>
+      <c r="C8" s="233" t="s">
+        <v>105</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>29</v>
@@ -4566,114 +4597,114 @@
       <c r="T8" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="U8" s="25" t="s">
-        <v>33</v>
+      <c r="U8" s="235" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="2:23" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="202" t="s">
+      <c r="B9" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="203" t="s">
+      <c r="C9" s="143" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="202" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="202" t="s">
+      <c r="E9" s="142" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="142" t="s">
         <v>92</v>
       </c>
-      <c r="H9" s="202" t="s">
-        <v>88</v>
-      </c>
-      <c r="I9" s="202" t="s">
-        <v>88</v>
-      </c>
-      <c r="K9" s="210" t="s">
-        <v>88</v>
-      </c>
-      <c r="L9" s="210" t="s">
+      <c r="H9" s="142" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="142" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="149" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" s="149" t="s">
         <v>89</v>
       </c>
-      <c r="M9" s="210" t="s">
+      <c r="M9" s="149" t="s">
         <v>89</v>
       </c>
-      <c r="P9" s="219" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q9" s="219" t="s">
-        <v>88</v>
-      </c>
-      <c r="R9" s="219" t="s">
-        <v>88</v>
-      </c>
-      <c r="T9" s="225" t="s">
+      <c r="P9" s="156" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q9" s="156" t="s">
+        <v>88</v>
+      </c>
+      <c r="R9" s="156" t="s">
+        <v>88</v>
+      </c>
+      <c r="T9" s="162" t="s">
         <v>96</v>
       </c>
-      <c r="U9" s="226" t="s">
+      <c r="U9" s="163" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="10" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="146" t="s">
+      <c r="B10" s="110" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="147" t="s">
+      <c r="C10" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="146" t="s">
+      <c r="E10" s="110" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="147"/>
-      <c r="H10" s="146" t="s">
+      <c r="F10" s="111"/>
+      <c r="H10" s="110" t="s">
         <v>103</v>
       </c>
-      <c r="I10" s="146" t="s">
+      <c r="I10" s="110" t="s">
         <v>103</v>
       </c>
-      <c r="K10" s="152" t="s">
+      <c r="K10" s="115" t="s">
         <v>103</v>
       </c>
-      <c r="L10" s="152"/>
-      <c r="M10" s="152"/>
-      <c r="P10" s="189" t="s">
+      <c r="L10" s="115"/>
+      <c r="M10" s="115"/>
+      <c r="P10" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="Q10" s="189" t="s">
+      <c r="Q10" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="R10" s="189" t="s">
+      <c r="R10" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="T10" s="196" t="s">
+      <c r="T10" s="136" t="s">
         <v>104</v>
       </c>
-      <c r="U10" s="197" t="s">
+      <c r="U10" s="137" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="11" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="12" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="122" t="s">
+      <c r="B12" s="220" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="122"/>
-      <c r="E12" s="122" t="s">
+      <c r="C12" s="220"/>
+      <c r="E12" s="220" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="122"/>
-      <c r="K12" s="120" t="s">
+      <c r="F12" s="220"/>
+      <c r="K12" s="180" t="s">
         <v>80</v>
       </c>
-      <c r="L12" s="120"/>
-      <c r="P12" s="109" t="s">
+      <c r="L12" s="180"/>
+      <c r="P12" s="170" t="s">
         <v>64</v>
       </c>
-      <c r="Q12" s="109"/>
-      <c r="T12" s="138" t="s">
+      <c r="Q12" s="170"/>
+      <c r="T12" s="208" t="s">
         <v>65</v>
       </c>
-      <c r="U12" s="138"/>
+      <c r="U12" s="208"/>
     </row>
     <row r="13" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="8" t="s">
@@ -4708,10 +4739,10 @@
       </c>
     </row>
     <row r="14" spans="2:23" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="148" t="s">
+      <c r="B14" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="149" t="s">
+      <c r="C14" s="113" t="s">
         <v>90</v>
       </c>
       <c r="E14" s="82" t="s">
@@ -4720,94 +4751,94 @@
       <c r="F14" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="K14" s="210" t="s">
-        <v>88</v>
-      </c>
-      <c r="L14" s="210" t="s">
-        <v>88</v>
-      </c>
-      <c r="P14" s="190" t="s">
+      <c r="K14" s="149" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" s="149" t="s">
+        <v>88</v>
+      </c>
+      <c r="P14" s="130" t="s">
         <v>96</v>
       </c>
-      <c r="Q14" s="191" t="s">
+      <c r="Q14" s="131" t="s">
         <v>90</v>
       </c>
-      <c r="T14" s="225" t="s">
-        <v>88</v>
-      </c>
-      <c r="U14" s="225" t="s">
+      <c r="T14" s="162" t="s">
+        <v>88</v>
+      </c>
+      <c r="U14" s="162" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="15" spans="2:23" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="204" t="s">
+      <c r="B15" s="144" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="205" t="s">
+      <c r="C15" s="145" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="204" t="s">
+      <c r="E15" s="144" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="204" t="s">
+      <c r="F15" s="144" t="s">
         <v>104</v>
       </c>
-      <c r="K15" s="152" t="s">
+      <c r="K15" s="115" t="s">
         <v>103</v>
       </c>
-      <c r="L15" s="152" t="s">
+      <c r="L15" s="115" t="s">
         <v>103</v>
       </c>
-      <c r="P15" s="220" t="s">
+      <c r="P15" s="157" t="s">
         <v>104</v>
       </c>
-      <c r="Q15" s="221" t="s">
+      <c r="Q15" s="158" t="s">
         <v>87</v>
       </c>
-      <c r="T15" s="196" t="s">
+      <c r="T15" s="136" t="s">
         <v>103</v>
       </c>
-      <c r="U15" s="196" t="s">
+      <c r="U15" s="136" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="16" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="17" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="122" t="s">
+      <c r="B17" s="220" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="F17" s="122" t="s">
+      <c r="C17" s="220"/>
+      <c r="D17" s="220"/>
+      <c r="F17" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="122"/>
-      <c r="K17" s="121" t="s">
+      <c r="G17" s="220"/>
+      <c r="H17" s="220"/>
+      <c r="I17" s="220"/>
+      <c r="K17" s="221" t="s">
         <v>85</v>
       </c>
-      <c r="L17" s="121"/>
-      <c r="P17" s="140" t="s">
+      <c r="L17" s="221"/>
+      <c r="P17" s="222" t="s">
         <v>68</v>
       </c>
-      <c r="Q17" s="140"/>
-      <c r="R17" s="140"/>
-      <c r="T17" s="132" t="s">
+      <c r="Q17" s="222"/>
+      <c r="R17" s="222"/>
+      <c r="T17" s="223" t="s">
         <v>86</v>
       </c>
-      <c r="U17" s="132"/>
-      <c r="V17" s="132"/>
-      <c r="W17" s="132"/>
+      <c r="U17" s="223"/>
+      <c r="V17" s="223"/>
+      <c r="W17" s="223"/>
     </row>
     <row r="18" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="123" t="s">
+      <c r="C18" s="224" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="123"/>
+      <c r="D18" s="224"/>
       <c r="F18" s="8" t="s">
         <v>39</v>
       </c>
@@ -4849,113 +4880,113 @@
       </c>
     </row>
     <row r="19" spans="2:30" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="148" t="s">
+      <c r="B19" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="150" t="s">
+      <c r="C19" s="225" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="150"/>
-      <c r="F19" s="207" t="s">
-        <v>88</v>
-      </c>
-      <c r="G19" s="207" t="s">
+      <c r="D19" s="225"/>
+      <c r="F19" s="146" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="207" t="s">
+      <c r="H19" s="146" t="s">
         <v>93</v>
       </c>
-      <c r="I19" s="207" t="s">
+      <c r="I19" s="146" t="s">
         <v>93</v>
       </c>
-      <c r="K19" s="211" t="s">
-        <v>88</v>
-      </c>
-      <c r="L19" s="212" t="s">
+      <c r="K19" s="150" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" s="151" t="s">
         <v>94</v>
       </c>
-      <c r="P19" s="222" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q19" s="222" t="s">
-        <v>88</v>
-      </c>
-      <c r="R19" s="222" t="s">
+      <c r="P19" s="159" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q19" s="159" t="s">
+        <v>88</v>
+      </c>
+      <c r="R19" s="159" t="s">
         <v>96</v>
       </c>
-      <c r="T19" s="198" t="s">
-        <v>88</v>
-      </c>
-      <c r="U19" s="198" t="s">
-        <v>88</v>
-      </c>
-      <c r="V19" s="198" t="s">
-        <v>88</v>
-      </c>
-      <c r="W19" s="198" t="s">
+      <c r="T19" s="138" t="s">
+        <v>88</v>
+      </c>
+      <c r="U19" s="138" t="s">
+        <v>88</v>
+      </c>
+      <c r="V19" s="138" t="s">
+        <v>88</v>
+      </c>
+      <c r="W19" s="138" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="20" spans="2:30" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="204" t="s">
+      <c r="B20" s="144" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="206" t="s">
+      <c r="C20" s="226" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="206"/>
-      <c r="F20" s="204" t="s">
+      <c r="D20" s="226"/>
+      <c r="F20" s="144" t="s">
         <v>103</v>
       </c>
-      <c r="G20" s="204" t="s">
+      <c r="G20" s="144" t="s">
         <v>104</v>
       </c>
-      <c r="H20" s="204"/>
-      <c r="I20" s="204"/>
-      <c r="K20" s="153" t="s">
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
+      <c r="K20" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="L20" s="154"/>
-      <c r="P20" s="192" t="s">
+      <c r="L20" s="117"/>
+      <c r="P20" s="132" t="s">
         <v>103</v>
       </c>
-      <c r="Q20" s="192" t="s">
+      <c r="Q20" s="132" t="s">
         <v>103</v>
       </c>
-      <c r="R20" s="192" t="s">
+      <c r="R20" s="132" t="s">
         <v>104</v>
       </c>
-      <c r="T20" s="227" t="s">
+      <c r="T20" s="164" t="s">
         <v>103</v>
       </c>
-      <c r="U20" s="227" t="s">
+      <c r="U20" s="164" t="s">
         <v>103</v>
       </c>
-      <c r="V20" s="227" t="s">
+      <c r="V20" s="164" t="s">
         <v>103</v>
       </c>
-      <c r="W20" s="227" t="s">
+      <c r="W20" s="164" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="21" spans="2:30" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="22" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="124" t="s">
+      <c r="B22" s="227" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="124"/>
-      <c r="K22" s="121" t="s">
+      <c r="C22" s="227"/>
+      <c r="K22" s="221" t="s">
         <v>83</v>
       </c>
-      <c r="L22" s="121"/>
-      <c r="P22" s="139" t="s">
+      <c r="L22" s="221"/>
+      <c r="P22" s="228" t="s">
         <v>58</v>
       </c>
-      <c r="Q22" s="139"/>
-      <c r="T22" s="132" t="s">
+      <c r="Q22" s="228"/>
+      <c r="T22" s="223" t="s">
         <v>72</v>
       </c>
-      <c r="U22" s="132"/>
+      <c r="U22" s="223"/>
     </row>
     <row r="23" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="11" t="s">
@@ -4973,8 +5004,8 @@
       <c r="P23" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="Q23" s="68" t="s">
-        <v>87</v>
+      <c r="Q23" s="234" t="s">
+        <v>106</v>
       </c>
       <c r="T23" s="99" t="s">
         <v>73</v>
@@ -4984,71 +5015,71 @@
       </c>
     </row>
     <row r="24" spans="2:30" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="208" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="208" t="s">
-        <v>88</v>
-      </c>
-      <c r="K24" s="211" t="s">
-        <v>88</v>
-      </c>
-      <c r="L24" s="211" t="s">
-        <v>88</v>
-      </c>
-      <c r="P24" s="193" t="s">
+      <c r="B24" s="147" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="147" t="s">
+        <v>88</v>
+      </c>
+      <c r="K24" s="150" t="s">
+        <v>88</v>
+      </c>
+      <c r="L24" s="150" t="s">
+        <v>88</v>
+      </c>
+      <c r="P24" s="133" t="s">
         <v>96</v>
       </c>
-      <c r="Q24" s="194" t="s">
+      <c r="Q24" s="134" t="s">
         <v>90</v>
       </c>
-      <c r="T24" s="198" t="s">
-        <v>88</v>
-      </c>
-      <c r="U24" s="198" t="s">
+      <c r="T24" s="138" t="s">
+        <v>88</v>
+      </c>
+      <c r="U24" s="138" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="25" spans="2:30" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="204" t="s">
+      <c r="B25" s="144" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="204" t="s">
+      <c r="C25" s="144" t="s">
         <v>103</v>
       </c>
-      <c r="K25" s="153" t="s">
+      <c r="K25" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="L25" s="153" t="s">
+      <c r="L25" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="P25" s="223" t="s">
+      <c r="P25" s="160" t="s">
         <v>104</v>
       </c>
-      <c r="Q25" s="224" t="s">
+      <c r="Q25" s="161" t="s">
         <v>87</v>
       </c>
-      <c r="T25" s="227" t="s">
+      <c r="T25" s="164" t="s">
         <v>103</v>
       </c>
-      <c r="U25" s="227"/>
+      <c r="U25" s="164"/>
     </row>
     <row r="26" spans="2:30" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="27" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K27" s="128" t="s">
+      <c r="K27" s="196" t="s">
         <v>56</v>
       </c>
-      <c r="L27" s="128"/>
-      <c r="M27" s="128"/>
-      <c r="P27" s="137" t="s">
+      <c r="L27" s="196"/>
+      <c r="M27" s="196"/>
+      <c r="P27" s="207" t="s">
         <v>78</v>
       </c>
-      <c r="Q27" s="137"/>
-      <c r="T27" s="141" t="s">
+      <c r="Q27" s="207"/>
+      <c r="T27" s="218" t="s">
         <v>102</v>
       </c>
-      <c r="U27" s="142"/>
-      <c r="V27" s="142"/>
+      <c r="U27" s="219"/>
+      <c r="V27" s="219"/>
       <c r="AD27" s="71"/>
     </row>
     <row r="28" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5079,65 +5110,65 @@
       <c r="AD28" s="70"/>
     </row>
     <row r="29" spans="2:30" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="K29" s="183" t="s">
-        <v>88</v>
-      </c>
-      <c r="L29" s="183" t="s">
-        <v>88</v>
-      </c>
-      <c r="M29" s="183" t="s">
-        <v>88</v>
-      </c>
-      <c r="P29" s="193" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q29" s="193" t="s">
+      <c r="K29" s="125" t="s">
+        <v>88</v>
+      </c>
+      <c r="L29" s="125" t="s">
+        <v>88</v>
+      </c>
+      <c r="M29" s="125" t="s">
+        <v>88</v>
+      </c>
+      <c r="P29" s="133" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q29" s="133" t="s">
         <v>96</v>
       </c>
-      <c r="T29" s="228" t="s">
-        <v>88</v>
-      </c>
-      <c r="U29" s="228" t="s">
-        <v>88</v>
-      </c>
-      <c r="V29" s="228" t="s">
+      <c r="T29" s="165" t="s">
+        <v>88</v>
+      </c>
+      <c r="U29" s="165" t="s">
+        <v>88</v>
+      </c>
+      <c r="V29" s="165" t="s">
         <v>88</v>
       </c>
       <c r="AD29" s="70"/>
     </row>
     <row r="30" spans="2:30" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K30" s="213" t="s">
+      <c r="K30" s="152" t="s">
         <v>103</v>
       </c>
-      <c r="L30" s="213"/>
-      <c r="M30" s="213"/>
-      <c r="P30" s="223" t="s">
+      <c r="L30" s="152"/>
+      <c r="M30" s="152"/>
+      <c r="P30" s="160" t="s">
         <v>103</v>
       </c>
-      <c r="Q30" s="223" t="s">
+      <c r="Q30" s="160" t="s">
         <v>104</v>
       </c>
-      <c r="T30" s="199" t="s">
+      <c r="T30" s="139" t="s">
         <v>103</v>
       </c>
-      <c r="U30" s="199" t="s">
+      <c r="U30" s="139" t="s">
         <v>103</v>
       </c>
-      <c r="V30" s="199" t="s">
+      <c r="V30" s="139" t="s">
         <v>103</v>
       </c>
       <c r="AD30" s="70"/>
     </row>
     <row r="31" spans="2:30" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="32" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K32" s="128" t="s">
+      <c r="K32" s="196" t="s">
         <v>28</v>
       </c>
-      <c r="L32" s="128"/>
-      <c r="T32" s="133" t="s">
+      <c r="L32" s="196"/>
+      <c r="T32" s="203" t="s">
         <v>74</v>
       </c>
-      <c r="U32" s="133"/>
+      <c r="U32" s="203"/>
     </row>
     <row r="33" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K33" s="53" t="s">
@@ -5149,58 +5180,58 @@
       <c r="T33" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="U33" s="74" t="s">
-        <v>87</v>
+      <c r="U33" s="236" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="11:21" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="K34" s="183" t="s">
-        <v>88</v>
-      </c>
-      <c r="L34" s="183" t="s">
-        <v>88</v>
-      </c>
-      <c r="T34" s="228" t="s">
+      <c r="K34" s="125" t="s">
+        <v>88</v>
+      </c>
+      <c r="L34" s="125" t="s">
+        <v>88</v>
+      </c>
+      <c r="T34" s="165" t="s">
         <v>96</v>
       </c>
-      <c r="U34" s="229" t="s">
+      <c r="U34" s="166" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="35" spans="11:21" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K35" s="213" t="s">
+      <c r="K35" s="152" t="s">
         <v>103</v>
       </c>
-      <c r="L35" s="213" t="s">
+      <c r="L35" s="152" t="s">
         <v>103</v>
       </c>
-      <c r="T35" s="199" t="s">
+      <c r="T35" s="139" t="s">
         <v>104</v>
       </c>
-      <c r="U35" s="230" t="s">
+      <c r="U35" s="167" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="36" spans="11:21" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="37" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K37" s="125" t="s">
+      <c r="K37" s="193" t="s">
         <v>46</v>
       </c>
-      <c r="L37" s="125"/>
-      <c r="M37" s="125"/>
-      <c r="T37" s="134" t="s">
+      <c r="L37" s="193"/>
+      <c r="M37" s="193"/>
+      <c r="T37" s="204" t="s">
         <v>76</v>
       </c>
-      <c r="U37" s="134"/>
+      <c r="U37" s="204"/>
     </row>
     <row r="38" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K38" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="L38" s="126" t="s">
+      <c r="L38" s="194" t="s">
         <v>47</v>
       </c>
-      <c r="M38" s="126"/>
+      <c r="M38" s="194"/>
       <c r="T38" s="33" t="s">
         <v>73</v>
       </c>
@@ -5209,42 +5240,42 @@
       </c>
     </row>
     <row r="39" spans="11:21" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="K39" s="214" t="s">
+      <c r="K39" s="153" t="s">
         <v>96</v>
       </c>
-      <c r="L39" s="215" t="s">
+      <c r="L39" s="231" t="s">
         <v>90</v>
       </c>
-      <c r="M39" s="215"/>
-      <c r="T39" s="200" t="s">
-        <v>88</v>
-      </c>
-      <c r="U39" s="200" t="s">
+      <c r="M39" s="231"/>
+      <c r="T39" s="140" t="s">
+        <v>88</v>
+      </c>
+      <c r="U39" s="140" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="40" spans="11:21" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K40" s="184" t="s">
+      <c r="K40" s="126" t="s">
         <v>104</v>
       </c>
-      <c r="L40" s="185" t="s">
+      <c r="L40" s="229" t="s">
         <v>87</v>
       </c>
-      <c r="M40" s="185"/>
-      <c r="T40" s="231" t="s">
+      <c r="M40" s="229"/>
+      <c r="T40" s="168" t="s">
         <v>103</v>
       </c>
-      <c r="U40" s="231" t="s">
+      <c r="U40" s="168" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="41" spans="11:21" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="42" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K42" s="125" t="s">
+      <c r="K42" s="193" t="s">
         <v>43</v>
       </c>
-      <c r="L42" s="125"/>
-      <c r="M42" s="125"/>
+      <c r="L42" s="193"/>
+      <c r="M42" s="193"/>
     </row>
     <row r="43" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K43" s="55" t="s">
@@ -5258,31 +5289,31 @@
       </c>
     </row>
     <row r="44" spans="11:21" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="K44" s="214" t="s">
-        <v>88</v>
-      </c>
-      <c r="L44" s="214" t="s">
+      <c r="K44" s="153" t="s">
+        <v>88</v>
+      </c>
+      <c r="L44" s="153" t="s">
         <v>92</v>
       </c>
-      <c r="M44" s="214" t="s">
+      <c r="M44" s="153" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="45" spans="11:21" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K45" s="184" t="s">
+      <c r="K45" s="126" t="s">
         <v>103</v>
       </c>
-      <c r="L45" s="184"/>
-      <c r="M45" s="184" t="s">
+      <c r="L45" s="126"/>
+      <c r="M45" s="126" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="46" spans="11:21" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="47" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K47" s="125" t="s">
+      <c r="K47" s="193" t="s">
         <v>26</v>
       </c>
-      <c r="L47" s="125"/>
+      <c r="L47" s="193"/>
     </row>
     <row r="48" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K48" s="58" t="s">
@@ -5293,18 +5324,18 @@
       </c>
     </row>
     <row r="49" spans="11:13" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="K49" s="214" t="s">
-        <v>88</v>
-      </c>
-      <c r="L49" s="214" t="s">
+      <c r="K49" s="153" t="s">
+        <v>88</v>
+      </c>
+      <c r="L49" s="153" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="50" spans="11:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K50" s="184" t="s">
+      <c r="K50" s="126" t="s">
         <v>103</v>
       </c>
-      <c r="L50" s="184" t="s">
+      <c r="L50" s="126" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5313,46 +5344,46 @@
       <c r="L51" s="75"/>
     </row>
     <row r="52" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K52" s="127" t="s">
+      <c r="K52" s="195" t="s">
         <v>52</v>
       </c>
-      <c r="L52" s="127"/>
-      <c r="M52" s="127"/>
+      <c r="L52" s="195"/>
+      <c r="M52" s="195"/>
     </row>
     <row r="53" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K53" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="L53" s="129" t="s">
+      <c r="L53" s="197" t="s">
         <v>54</v>
       </c>
-      <c r="M53" s="129"/>
+      <c r="M53" s="197"/>
     </row>
     <row r="54" spans="11:13" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="K54" s="186" t="s">
+      <c r="K54" s="127" t="s">
         <v>96</v>
       </c>
-      <c r="L54" s="187" t="s">
+      <c r="L54" s="232" t="s">
         <v>90</v>
       </c>
-      <c r="M54" s="187"/>
+      <c r="M54" s="232"/>
     </row>
     <row r="55" spans="11:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K55" s="216" t="s">
+      <c r="K55" s="154" t="s">
         <v>104</v>
       </c>
-      <c r="L55" s="217" t="s">
+      <c r="L55" s="230" t="s">
         <v>87</v>
       </c>
-      <c r="M55" s="217"/>
+      <c r="M55" s="230"/>
     </row>
     <row r="56" spans="11:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="57" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K57" s="127" t="s">
+      <c r="K57" s="195" t="s">
         <v>50</v>
       </c>
-      <c r="L57" s="127"/>
-      <c r="M57" s="127"/>
+      <c r="L57" s="195"/>
+      <c r="M57" s="195"/>
     </row>
     <row r="58" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K58" s="60" t="s">
@@ -5366,31 +5397,31 @@
       </c>
     </row>
     <row r="59" spans="11:13" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="K59" s="186" t="s">
-        <v>88</v>
-      </c>
-      <c r="L59" s="186" t="s">
+      <c r="K59" s="127" t="s">
+        <v>88</v>
+      </c>
+      <c r="L59" s="127" t="s">
         <v>92</v>
       </c>
-      <c r="M59" s="186" t="s">
+      <c r="M59" s="127" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="60" spans="11:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K60" s="216" t="s">
+      <c r="K60" s="154" t="s">
         <v>103</v>
       </c>
-      <c r="L60" s="216"/>
-      <c r="M60" s="216" t="s">
+      <c r="L60" s="154"/>
+      <c r="M60" s="154" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="61" spans="11:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="62" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K62" s="127" t="s">
+      <c r="K62" s="195" t="s">
         <v>48</v>
       </c>
-      <c r="L62" s="127"/>
+      <c r="L62" s="195"/>
     </row>
     <row r="63" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K63" s="63" t="s">
@@ -5401,27 +5432,24 @@
       </c>
     </row>
     <row r="64" spans="11:13" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="K64" s="186" t="s">
-        <v>88</v>
-      </c>
-      <c r="L64" s="186" t="s">
+      <c r="K64" s="127" t="s">
+        <v>88</v>
+      </c>
+      <c r="L64" s="127" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="65" spans="11:12" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K65" s="216" t="s">
+      <c r="K65" s="154" t="s">
         <v>103</v>
       </c>
-      <c r="L65" s="216" t="s">
+      <c r="L65" s="154" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="66" spans="11:12" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="L54:M54"/>
     <mergeCell ref="K57:M57"/>
     <mergeCell ref="K62:L62"/>
     <mergeCell ref="L40:M40"/>
@@ -5432,18 +5460,21 @@
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="K42:M42"/>
     <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="L54:M54"/>
     <mergeCell ref="T22:U22"/>
     <mergeCell ref="K27:M27"/>
     <mergeCell ref="P27:Q27"/>
     <mergeCell ref="T27:V27"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="T32:U32"/>
+    <mergeCell ref="P22:Q22"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="K22:L22"/>
-    <mergeCell ref="P22:Q22"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="K12:L12"/>

--- a/EsquemaGestionBiblioteca.xlsx
+++ b/EsquemaGestionBiblioteca.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\OneDrive - Universidad de Antioquia\Escritorio\SQL_Practicas\SQL_GestionBiblioteca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7D7D48-FFCF-4F06-9C2A-B2041A2AC5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00107766-DF20-4D78-A430-B7A97EF61247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12096" activeTab="2" xr2:uid="{B93947F0-A758-4779-A13A-F1311E76CF00}"/>
   </bookViews>
@@ -393,7 +393,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,6 +535,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="5"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="23">
     <fill>
@@ -670,7 +688,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="110">
+  <borders count="112">
     <border>
       <left/>
       <right/>
@@ -2205,11 +2223,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="3" tint="9.9948118533890809E-2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="3" tint="9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="3" tint="9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="237">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2715,198 +2753,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="109" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2918,6 +2764,210 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3281,15 +3331,15 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:10" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
     </row>
     <row r="3" spans="2:10" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="8" t="s">
@@ -3316,17 +3366,17 @@
     </row>
     <row r="4" spans="2:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="2:10" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="173" t="s">
+      <c r="B5" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="173"/>
-      <c r="D5" s="173"/>
-      <c r="E5" s="173"/>
-      <c r="F5" s="173"/>
-      <c r="G5" s="173"/>
-      <c r="H5" s="173"/>
-      <c r="I5" s="173"/>
-      <c r="J5" s="173"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="177"/>
     </row>
     <row r="6" spans="2:10" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="39" t="s">
@@ -3350,21 +3400,21 @@
       <c r="H6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="172" t="s">
+      <c r="I6" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="172"/>
+      <c r="J6" s="176"/>
     </row>
     <row r="7" spans="2:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="2:10" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="170" t="s">
+      <c r="B8" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="174"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -3389,8 +3439,8 @@
         <v>21</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="169"/>
-      <c r="J9" s="169"/>
+      <c r="I9" s="173"/>
+      <c r="J9" s="173"/>
     </row>
     <row r="10" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
@@ -3417,33 +3467,33 @@
   <sheetData>
     <row r="1" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
       <c r="H2" s="102"/>
       <c r="I2" s="102"/>
-      <c r="K2" s="174" t="s">
+      <c r="K2" s="219" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="174"/>
-      <c r="M2" s="174"/>
-      <c r="N2" s="174"/>
-      <c r="P2" s="175" t="s">
+      <c r="L2" s="219"/>
+      <c r="M2" s="219"/>
+      <c r="N2" s="219"/>
+      <c r="P2" s="220" t="s">
         <v>57</v>
       </c>
-      <c r="Q2" s="175"/>
-      <c r="R2" s="175"/>
-      <c r="T2" s="205" t="s">
+      <c r="Q2" s="220"/>
+      <c r="R2" s="220"/>
+      <c r="T2" s="183" t="s">
         <v>60</v>
       </c>
-      <c r="U2" s="206"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="206"/>
+      <c r="U2" s="184"/>
+      <c r="V2" s="184"/>
+      <c r="W2" s="184"/>
     </row>
     <row r="3" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="107" t="s">
@@ -3565,32 +3615,32 @@
     </row>
     <row r="5" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="176" t="s">
+      <c r="B6" s="209" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="177"/>
-      <c r="E6" s="176" t="s">
+      <c r="C6" s="210"/>
+      <c r="E6" s="209" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="177"/>
-      <c r="H6" s="178" t="s">
+      <c r="F6" s="210"/>
+      <c r="H6" s="221" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="178"/>
-      <c r="K6" s="180" t="s">
+      <c r="I6" s="221"/>
+      <c r="K6" s="223" t="s">
         <v>82</v>
       </c>
-      <c r="L6" s="180"/>
-      <c r="M6" s="180"/>
-      <c r="P6" s="179" t="s">
+      <c r="L6" s="223"/>
+      <c r="M6" s="223"/>
+      <c r="P6" s="222" t="s">
         <v>66</v>
       </c>
-      <c r="Q6" s="179"/>
-      <c r="R6" s="179"/>
-      <c r="T6" s="208" t="s">
+      <c r="Q6" s="222"/>
+      <c r="R6" s="222"/>
+      <c r="T6" s="186" t="s">
         <v>71</v>
       </c>
-      <c r="U6" s="208"/>
+      <c r="U6" s="186"/>
     </row>
     <row r="7" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="104" t="s">
@@ -3682,26 +3732,26 @@
     </row>
     <row r="9" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="183" t="s">
+      <c r="B10" s="211" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="184"/>
-      <c r="E10" s="183" t="s">
+      <c r="C10" s="213"/>
+      <c r="E10" s="211" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="184"/>
-      <c r="K10" s="187" t="s">
+      <c r="F10" s="213"/>
+      <c r="K10" s="205" t="s">
         <v>80</v>
       </c>
-      <c r="L10" s="188"/>
-      <c r="P10" s="213" t="s">
+      <c r="L10" s="206"/>
+      <c r="P10" s="191" t="s">
         <v>64</v>
       </c>
-      <c r="Q10" s="214"/>
-      <c r="T10" s="209" t="s">
+      <c r="Q10" s="192"/>
+      <c r="T10" s="187" t="s">
         <v>65</v>
       </c>
-      <c r="U10" s="210"/>
+      <c r="U10" s="188"/>
     </row>
     <row r="11" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="8" t="s">
@@ -3769,41 +3819,41 @@
     </row>
     <row r="13" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="183" t="s">
+      <c r="B14" s="211" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="185"/>
-      <c r="D14" s="184"/>
-      <c r="F14" s="183" t="s">
+      <c r="C14" s="212"/>
+      <c r="D14" s="213"/>
+      <c r="F14" s="211" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="185"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="184"/>
-      <c r="K14" s="189" t="s">
+      <c r="G14" s="212"/>
+      <c r="H14" s="212"/>
+      <c r="I14" s="213"/>
+      <c r="K14" s="207" t="s">
         <v>85</v>
       </c>
-      <c r="L14" s="190"/>
-      <c r="P14" s="215" t="s">
+      <c r="L14" s="208"/>
+      <c r="P14" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="Q14" s="216"/>
-      <c r="R14" s="217"/>
-      <c r="T14" s="200" t="s">
+      <c r="Q14" s="194"/>
+      <c r="R14" s="195"/>
+      <c r="T14" s="178" t="s">
         <v>86</v>
       </c>
-      <c r="U14" s="201"/>
-      <c r="V14" s="201"/>
-      <c r="W14" s="202"/>
+      <c r="U14" s="179"/>
+      <c r="V14" s="179"/>
+      <c r="W14" s="180"/>
     </row>
     <row r="15" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="191" t="s">
+      <c r="C15" s="214" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="192"/>
+      <c r="D15" s="215"/>
       <c r="F15" s="8" t="s">
         <v>39</v>
       </c>
@@ -3848,10 +3898,10 @@
       <c r="B16" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="181" t="s">
+      <c r="C16" s="216" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="182"/>
+      <c r="D16" s="217"/>
       <c r="F16" s="106" t="s">
         <v>88</v>
       </c>
@@ -3902,14 +3952,14 @@
         <v>83</v>
       </c>
       <c r="L18" s="119"/>
-      <c r="P18" s="211" t="s">
+      <c r="P18" s="189" t="s">
         <v>58</v>
       </c>
-      <c r="Q18" s="212"/>
-      <c r="T18" s="200" t="s">
+      <c r="Q18" s="190"/>
+      <c r="T18" s="178" t="s">
         <v>72</v>
       </c>
-      <c r="U18" s="202"/>
+      <c r="U18" s="180"/>
     </row>
     <row r="19" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="11" t="s">
@@ -3965,20 +4015,20 @@
     </row>
     <row r="21" spans="2:30" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="22" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K22" s="196" t="s">
+      <c r="K22" s="201" t="s">
         <v>56</v>
       </c>
-      <c r="L22" s="196"/>
-      <c r="M22" s="196"/>
-      <c r="P22" s="207" t="s">
+      <c r="L22" s="201"/>
+      <c r="M22" s="201"/>
+      <c r="P22" s="185" t="s">
         <v>78</v>
       </c>
-      <c r="Q22" s="207"/>
-      <c r="T22" s="218" t="s">
+      <c r="Q22" s="185"/>
+      <c r="T22" s="196" t="s">
         <v>102</v>
       </c>
-      <c r="U22" s="219"/>
-      <c r="V22" s="219"/>
+      <c r="U22" s="197"/>
+      <c r="V22" s="197"/>
       <c r="AD22" s="71"/>
     </row>
     <row r="23" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4047,14 +4097,14 @@
       <c r="AD25" s="70"/>
     </row>
     <row r="26" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K26" s="196" t="s">
+      <c r="K26" s="201" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="196"/>
-      <c r="T26" s="203" t="s">
+      <c r="L26" s="201"/>
+      <c r="T26" s="181" t="s">
         <v>74</v>
       </c>
-      <c r="U26" s="203"/>
+      <c r="U26" s="181"/>
     </row>
     <row r="27" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K27" s="53" t="s">
@@ -4091,24 +4141,24 @@
       <c r="U29" s="108"/>
     </row>
     <row r="30" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K30" s="193" t="s">
+      <c r="K30" s="198" t="s">
         <v>46</v>
       </c>
-      <c r="L30" s="193"/>
-      <c r="M30" s="193"/>
-      <c r="T30" s="204" t="s">
+      <c r="L30" s="198"/>
+      <c r="M30" s="198"/>
+      <c r="T30" s="182" t="s">
         <v>76</v>
       </c>
-      <c r="U30" s="204"/>
+      <c r="U30" s="182"/>
     </row>
     <row r="31" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K31" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="L31" s="194" t="s">
+      <c r="L31" s="199" t="s">
         <v>47</v>
       </c>
-      <c r="M31" s="194"/>
+      <c r="M31" s="199"/>
       <c r="T31" s="33" t="s">
         <v>73</v>
       </c>
@@ -4120,10 +4170,10 @@
       <c r="K32" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="L32" s="198" t="s">
+      <c r="L32" s="203" t="s">
         <v>94</v>
       </c>
-      <c r="M32" s="198"/>
+      <c r="M32" s="203"/>
       <c r="T32" s="94" t="s">
         <v>88</v>
       </c>
@@ -4139,11 +4189,11 @@
       <c r="U33" s="1"/>
     </row>
     <row r="34" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K34" s="193" t="s">
+      <c r="K34" s="198" t="s">
         <v>43</v>
       </c>
-      <c r="L34" s="193"/>
-      <c r="M34" s="193"/>
+      <c r="L34" s="198"/>
+      <c r="M34" s="198"/>
     </row>
     <row r="35" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K35" s="55" t="s">
@@ -4173,10 +4223,10 @@
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K38" s="193" t="s">
+      <c r="K38" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="L38" s="193"/>
+      <c r="L38" s="198"/>
     </row>
     <row r="39" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K39" s="58" t="s">
@@ -4199,29 +4249,29 @@
       <c r="L41" s="1"/>
     </row>
     <row r="42" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K42" s="195" t="s">
+      <c r="K42" s="200" t="s">
         <v>52</v>
       </c>
-      <c r="L42" s="195"/>
-      <c r="M42" s="195"/>
+      <c r="L42" s="200"/>
+      <c r="M42" s="200"/>
     </row>
     <row r="43" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K43" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="L43" s="197" t="s">
+      <c r="L43" s="202" t="s">
         <v>54</v>
       </c>
-      <c r="M43" s="197"/>
+      <c r="M43" s="202"/>
     </row>
     <row r="44" spans="11:21" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="K44" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="L44" s="199" t="s">
+      <c r="L44" s="204" t="s">
         <v>94</v>
       </c>
-      <c r="M44" s="199"/>
+      <c r="M44" s="204"/>
     </row>
     <row r="45" spans="11:21" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K45" s="1"/>
@@ -4229,11 +4279,11 @@
       <c r="M45" s="1"/>
     </row>
     <row r="46" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K46" s="195" t="s">
+      <c r="K46" s="200" t="s">
         <v>50</v>
       </c>
-      <c r="L46" s="195"/>
-      <c r="M46" s="195"/>
+      <c r="L46" s="200"/>
+      <c r="M46" s="200"/>
     </row>
     <row r="47" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K47" s="60" t="s">
@@ -4263,10 +4313,10 @@
       <c r="M49" s="1"/>
     </row>
     <row r="50" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K50" s="195" t="s">
+      <c r="K50" s="200" t="s">
         <v>48</v>
       </c>
-      <c r="L50" s="195"/>
+      <c r="L50" s="200"/>
     </row>
     <row r="51" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K51" s="63" t="s">
@@ -4291,6 +4341,34 @@
     <row r="54" spans="11:13" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L44:M44"/>
     <mergeCell ref="T14:W14"/>
     <mergeCell ref="T26:U26"/>
     <mergeCell ref="T30:U30"/>
@@ -4303,34 +4381,6 @@
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="P14:R14"/>
     <mergeCell ref="T22:V22"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="K6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4341,47 +4391,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786E7316-EA20-46A2-BA29-9DC1D5078B34}">
   <dimension ref="B1:AD66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="237" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="K2" s="174" t="s">
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
+      <c r="F2" s="238"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
+      <c r="K2" s="219" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="174"/>
-      <c r="M2" s="174"/>
-      <c r="N2" s="174"/>
-      <c r="P2" s="175" t="s">
+      <c r="L2" s="219"/>
+      <c r="M2" s="219"/>
+      <c r="N2" s="219"/>
+      <c r="P2" s="220" t="s">
         <v>57</v>
       </c>
-      <c r="Q2" s="175"/>
-      <c r="R2" s="175"/>
-      <c r="T2" s="205" t="s">
+      <c r="Q2" s="220"/>
+      <c r="R2" s="220"/>
+      <c r="T2" s="183" t="s">
         <v>60</v>
       </c>
-      <c r="U2" s="206"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="206"/>
+      <c r="U2" s="184"/>
+      <c r="V2" s="184"/>
+      <c r="W2" s="184"/>
     </row>
     <row r="3" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="239" t="s">
         <v>99</v>
       </c>
       <c r="D3" s="103" t="s">
@@ -4432,7 +4482,7 @@
       <c r="V3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="72" t="s">
+      <c r="W3" s="240" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4530,38 +4580,38 @@
     </row>
     <row r="6" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="176" t="s">
+      <c r="B7" s="209" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="177"/>
-      <c r="E7" s="176" t="s">
+      <c r="C7" s="210"/>
+      <c r="E7" s="209" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="177"/>
-      <c r="H7" s="178" t="s">
+      <c r="F7" s="210"/>
+      <c r="H7" s="221" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="178"/>
-      <c r="K7" s="180" t="s">
+      <c r="I7" s="221"/>
+      <c r="K7" s="223" t="s">
         <v>82</v>
       </c>
-      <c r="L7" s="180"/>
-      <c r="M7" s="180"/>
-      <c r="P7" s="179" t="s">
+      <c r="L7" s="223"/>
+      <c r="M7" s="223"/>
+      <c r="P7" s="222" t="s">
         <v>66</v>
       </c>
-      <c r="Q7" s="179"/>
-      <c r="R7" s="179"/>
-      <c r="T7" s="208" t="s">
+      <c r="Q7" s="222"/>
+      <c r="R7" s="222"/>
+      <c r="T7" s="186" t="s">
         <v>71</v>
       </c>
-      <c r="U7" s="208"/>
+      <c r="U7" s="186"/>
     </row>
     <row r="8" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="233" t="s">
+      <c r="C8" s="169" t="s">
         <v>105</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -4597,7 +4647,7 @@
       <c r="T8" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="U8" s="235" t="s">
+      <c r="U8" s="171" t="s">
         <v>107</v>
       </c>
     </row>
@@ -4685,26 +4735,26 @@
     </row>
     <row r="11" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="12" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="220" t="s">
+      <c r="B12" s="235" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="220"/>
-      <c r="E12" s="220" t="s">
+      <c r="C12" s="235"/>
+      <c r="E12" s="235" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="220"/>
-      <c r="K12" s="180" t="s">
+      <c r="F12" s="235"/>
+      <c r="K12" s="223" t="s">
         <v>80</v>
       </c>
-      <c r="L12" s="180"/>
-      <c r="P12" s="170" t="s">
+      <c r="L12" s="223"/>
+      <c r="P12" s="174" t="s">
         <v>64</v>
       </c>
-      <c r="Q12" s="170"/>
-      <c r="T12" s="208" t="s">
+      <c r="Q12" s="174"/>
+      <c r="T12" s="186" t="s">
         <v>65</v>
       </c>
-      <c r="U12" s="208"/>
+      <c r="U12" s="186"/>
     </row>
     <row r="13" spans="2:23" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="8" t="s">
@@ -4804,41 +4854,41 @@
     </row>
     <row r="16" spans="2:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="17" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="220" t="s">
+      <c r="B17" s="235" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="220"/>
-      <c r="D17" s="220"/>
-      <c r="F17" s="220" t="s">
+      <c r="C17" s="235"/>
+      <c r="D17" s="235"/>
+      <c r="F17" s="235" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="220"/>
-      <c r="H17" s="220"/>
-      <c r="I17" s="220"/>
-      <c r="K17" s="221" t="s">
+      <c r="G17" s="235"/>
+      <c r="H17" s="235"/>
+      <c r="I17" s="235"/>
+      <c r="K17" s="234" t="s">
         <v>85</v>
       </c>
-      <c r="L17" s="221"/>
-      <c r="P17" s="222" t="s">
+      <c r="L17" s="234"/>
+      <c r="P17" s="236" t="s">
         <v>68</v>
       </c>
-      <c r="Q17" s="222"/>
-      <c r="R17" s="222"/>
-      <c r="T17" s="223" t="s">
+      <c r="Q17" s="236"/>
+      <c r="R17" s="236"/>
+      <c r="T17" s="228" t="s">
         <v>86</v>
       </c>
-      <c r="U17" s="223"/>
-      <c r="V17" s="223"/>
-      <c r="W17" s="223"/>
+      <c r="U17" s="228"/>
+      <c r="V17" s="228"/>
+      <c r="W17" s="228"/>
     </row>
     <row r="18" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="224" t="s">
+      <c r="C18" s="230" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="224"/>
+      <c r="D18" s="230"/>
       <c r="F18" s="8" t="s">
         <v>39</v>
       </c>
@@ -4883,10 +4933,10 @@
       <c r="B19" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="225" t="s">
+      <c r="C19" s="231" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="225"/>
+      <c r="D19" s="231"/>
       <c r="F19" s="146" t="s">
         <v>88</v>
       </c>
@@ -4931,10 +4981,10 @@
       <c r="B20" s="144" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="226" t="s">
+      <c r="C20" s="232" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="226"/>
+      <c r="D20" s="232"/>
       <c r="F20" s="144" t="s">
         <v>103</v>
       </c>
@@ -4971,22 +5021,22 @@
     </row>
     <row r="21" spans="2:30" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="22" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="233" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="227"/>
-      <c r="K22" s="221" t="s">
+      <c r="C22" s="233"/>
+      <c r="K22" s="234" t="s">
         <v>83</v>
       </c>
-      <c r="L22" s="221"/>
-      <c r="P22" s="228" t="s">
+      <c r="L22" s="234"/>
+      <c r="P22" s="229" t="s">
         <v>58</v>
       </c>
-      <c r="Q22" s="228"/>
-      <c r="T22" s="223" t="s">
+      <c r="Q22" s="229"/>
+      <c r="T22" s="228" t="s">
         <v>72</v>
       </c>
-      <c r="U22" s="223"/>
+      <c r="U22" s="228"/>
     </row>
     <row r="23" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="11" t="s">
@@ -5004,7 +5054,7 @@
       <c r="P23" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="Q23" s="234" t="s">
+      <c r="Q23" s="170" t="s">
         <v>106</v>
       </c>
       <c r="T23" s="99" t="s">
@@ -5066,20 +5116,20 @@
     </row>
     <row r="26" spans="2:30" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="27" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K27" s="196" t="s">
+      <c r="K27" s="201" t="s">
         <v>56</v>
       </c>
-      <c r="L27" s="196"/>
-      <c r="M27" s="196"/>
-      <c r="P27" s="207" t="s">
+      <c r="L27" s="201"/>
+      <c r="M27" s="201"/>
+      <c r="P27" s="185" t="s">
         <v>78</v>
       </c>
-      <c r="Q27" s="207"/>
-      <c r="T27" s="218" t="s">
+      <c r="Q27" s="185"/>
+      <c r="T27" s="196" t="s">
         <v>102</v>
       </c>
-      <c r="U27" s="219"/>
-      <c r="V27" s="219"/>
+      <c r="U27" s="197"/>
+      <c r="V27" s="197"/>
       <c r="AD27" s="71"/>
     </row>
     <row r="28" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5161,14 +5211,14 @@
     </row>
     <row r="31" spans="2:30" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="32" spans="2:30" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K32" s="196" t="s">
+      <c r="K32" s="201" t="s">
         <v>28</v>
       </c>
-      <c r="L32" s="196"/>
-      <c r="T32" s="203" t="s">
+      <c r="L32" s="201"/>
+      <c r="T32" s="181" t="s">
         <v>74</v>
       </c>
-      <c r="U32" s="203"/>
+      <c r="U32" s="181"/>
     </row>
     <row r="33" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K33" s="53" t="s">
@@ -5180,7 +5230,7 @@
       <c r="T33" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="U33" s="236" t="s">
+      <c r="U33" s="172" t="s">
         <v>108</v>
       </c>
     </row>
@@ -5214,24 +5264,24 @@
     </row>
     <row r="36" spans="11:21" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="37" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K37" s="193" t="s">
+      <c r="K37" s="198" t="s">
         <v>46</v>
       </c>
-      <c r="L37" s="193"/>
-      <c r="M37" s="193"/>
-      <c r="T37" s="204" t="s">
+      <c r="L37" s="198"/>
+      <c r="M37" s="198"/>
+      <c r="T37" s="182" t="s">
         <v>76</v>
       </c>
-      <c r="U37" s="204"/>
+      <c r="U37" s="182"/>
     </row>
     <row r="38" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K38" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="L38" s="194" t="s">
+      <c r="L38" s="199" t="s">
         <v>47</v>
       </c>
-      <c r="M38" s="194"/>
+      <c r="M38" s="199"/>
       <c r="T38" s="33" t="s">
         <v>73</v>
       </c>
@@ -5243,10 +5293,10 @@
       <c r="K39" s="153" t="s">
         <v>96</v>
       </c>
-      <c r="L39" s="231" t="s">
+      <c r="L39" s="226" t="s">
         <v>90</v>
       </c>
-      <c r="M39" s="231"/>
+      <c r="M39" s="226"/>
       <c r="T39" s="140" t="s">
         <v>88</v>
       </c>
@@ -5258,10 +5308,10 @@
       <c r="K40" s="126" t="s">
         <v>104</v>
       </c>
-      <c r="L40" s="229" t="s">
+      <c r="L40" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="M40" s="229"/>
+      <c r="M40" s="224"/>
       <c r="T40" s="168" t="s">
         <v>103</v>
       </c>
@@ -5271,11 +5321,11 @@
     </row>
     <row r="41" spans="11:21" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="42" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K42" s="193" t="s">
+      <c r="K42" s="198" t="s">
         <v>43</v>
       </c>
-      <c r="L42" s="193"/>
-      <c r="M42" s="193"/>
+      <c r="L42" s="198"/>
+      <c r="M42" s="198"/>
     </row>
     <row r="43" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K43" s="55" t="s">
@@ -5310,10 +5360,10 @@
     </row>
     <row r="46" spans="11:21" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="47" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K47" s="193" t="s">
+      <c r="K47" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="L47" s="193"/>
+      <c r="L47" s="198"/>
     </row>
     <row r="48" spans="11:21" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K48" s="58" t="s">
@@ -5344,46 +5394,46 @@
       <c r="L51" s="75"/>
     </row>
     <row r="52" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K52" s="195" t="s">
+      <c r="K52" s="200" t="s">
         <v>52</v>
       </c>
-      <c r="L52" s="195"/>
-      <c r="M52" s="195"/>
+      <c r="L52" s="200"/>
+      <c r="M52" s="200"/>
     </row>
     <row r="53" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K53" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="L53" s="197" t="s">
+      <c r="L53" s="202" t="s">
         <v>54</v>
       </c>
-      <c r="M53" s="197"/>
+      <c r="M53" s="202"/>
     </row>
     <row r="54" spans="11:13" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="K54" s="127" t="s">
         <v>96</v>
       </c>
-      <c r="L54" s="232" t="s">
+      <c r="L54" s="227" t="s">
         <v>90</v>
       </c>
-      <c r="M54" s="232"/>
+      <c r="M54" s="227"/>
     </row>
     <row r="55" spans="11:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K55" s="154" t="s">
         <v>104</v>
       </c>
-      <c r="L55" s="230" t="s">
+      <c r="L55" s="225" t="s">
         <v>87</v>
       </c>
-      <c r="M55" s="230"/>
+      <c r="M55" s="225"/>
     </row>
     <row r="56" spans="11:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="57" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K57" s="195" t="s">
+      <c r="K57" s="200" t="s">
         <v>50</v>
       </c>
-      <c r="L57" s="195"/>
-      <c r="M57" s="195"/>
+      <c r="L57" s="200"/>
+      <c r="M57" s="200"/>
     </row>
     <row r="58" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K58" s="60" t="s">
@@ -5418,10 +5468,10 @@
     </row>
     <row r="61" spans="11:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="62" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K62" s="195" t="s">
+      <c r="K62" s="200" t="s">
         <v>48</v>
       </c>
-      <c r="L62" s="195"/>
+      <c r="L62" s="200"/>
     </row>
     <row r="63" spans="11:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K63" s="63" t="s">
@@ -5450,42 +5500,6 @@
     <row r="66" spans="11:12" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="B2:G2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="T2:W2"/>
@@ -5495,6 +5509,42 @@
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="P7:R7"/>
     <mergeCell ref="T7:U7"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="L54:M54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
